--- a/source_docs/ptp.xlsx
+++ b/source_docs/ptp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="20" windowWidth="26440" windowHeight="19740"/>
@@ -383,12 +383,6 @@
     <t>Heeft u zich in de afgelopen 12 maanden onveilig gevoeld in andere situaties met ouders van leerlingen?</t>
   </si>
   <si>
-    <t>Heeft u zich in de afgelopen 12 maanden onveilig gevoeld in (individuele) gesprekken met collega’s / leidinggevenden?</t>
-  </si>
-  <si>
-    <t>Heeft u zich in de afgelopen 12 maanden onveilig gevoeld in andere situaties met collega’s / leidinggevenden?</t>
-  </si>
-  <si>
     <t>Heeft u zich in de afgelopen 12 maanden onveilig gevoeld buiten in de omgeving van de school?</t>
   </si>
   <si>
@@ -398,18 +392,12 @@
     <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van verbale agressie (zoals schelden, pesten, bedreigen, lastig vallen per telefoon/email) door ouders van leerlingen?</t>
   </si>
   <si>
-    <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van verbale agressie (zoals schelden, pesten, bedreigen, lastig vallen per telefoon/email) door collega’s / leidinggevenden?</t>
-  </si>
-  <si>
     <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van discriminatie (op grond van geslacht, seksuele geaardheid, religie, huidskleur, afkomst) door leerlingen?</t>
   </si>
   <si>
     <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van discriminatie (op grond van geslacht, seksuele geaardheid, religie, huidskleur, afkomst) door ouders van leerlingen?</t>
   </si>
   <si>
-    <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van discriminatie (op grond van geslacht, seksuele geaardheid, religie, huidskleur, afkomst) door collega’s / leidinggevenden?</t>
-  </si>
-  <si>
     <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van ongewenste seksuele intimiteiten (zoals seksueel getinte opmerkingen/gedragingen, handtastelijkheden, aanranding, verkrachting) door leerlingen?</t>
   </si>
   <si>
@@ -425,24 +413,15 @@
     <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van fysiek geweld (zoals duwen, slaan, schoppen, dreigen met wapens) door ouders van leerlingen?</t>
   </si>
   <si>
-    <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van fysiek geweld (zoals duwen, slaan, schoppen, dreigen met wapens) door collega’s/leidinggevenden?</t>
-  </si>
-  <si>
     <t>Zijn er in de afgelopen 12 maanden op school eigendommen van u vernield, beschadigd of gestolen door leerlingen?</t>
   </si>
   <si>
     <t>Zijn er in de afgelopen 12 maanden op school eigendommen van u vernield, beschadigd of gestolen door ouders van leerlingen?</t>
   </si>
   <si>
-    <t>Zijn er in de afgelopen 12 maanden op school eigendommen van u vernield, beschadigd of gestolen door collega’s/leidinggevenden?</t>
-  </si>
-  <si>
     <t>Zijn er in de afgelopen 12 maanden op school eigendommen van u vernield, beschadigd of gestolen door onbekenden?</t>
   </si>
   <si>
-    <t>Is er een collega of zijn er collega’s (ondergeschikten of meerderen) van u in de afgelopen 12 maanden op school slachtoffer geworden van één van de hiervoor genoemde onwenselijke gedragingen?</t>
-  </si>
-  <si>
     <t>Is er voldoende gelegenheid voor het veilig opbergen van (waardevolle) persoonlijke eigendommen?</t>
   </si>
   <si>
@@ -575,12 +554,6 @@
     <t>Hoe tevreden bent u over de leerlingsamenstelling op uw school?</t>
   </si>
   <si>
-    <t>Hoe tevreden bent u over de ondersteuning door de bouwcoördinatoren?</t>
-  </si>
-  <si>
-    <t>Hoe tevreden bent u over de beschikbaarheid en aanspreekbaarheid van de bouwcoördinatoren?</t>
-  </si>
-  <si>
     <t>BOVENSCHOOLSE COACHES</t>
   </si>
   <si>
@@ -770,9 +743,6 @@
     <t>Hoe tevreden bent u over uw betrokkenheid bij uw eigen school?</t>
   </si>
   <si>
-    <t>Hoe tevreden bent u over de betrokkenheid van uw collega"s bij de school in het algemeen?</t>
-  </si>
-  <si>
     <t>Hoe tevreden bent u over de resultaten van de school?</t>
   </si>
   <si>
@@ -860,9 +830,6 @@
     <t>Hoe tevreden bent u over de beoordelingsgesprekken?</t>
   </si>
   <si>
-    <t>Hoe tevreden bent u over de begeleiding van nieuwe collega’s?</t>
-  </si>
-  <si>
     <t>Hoe tevreden bent u over de ondersteuning door het managementteam op uw school?</t>
   </si>
   <si>
@@ -1076,8 +1043,41 @@
     <t>Hoe tevreden bent u over de handelingssuggesties van de IB-er?</t>
   </si>
   <si>
+    <t>Ik voel me vaak overbelast.</t>
+  </si>
+  <si>
+    <t>≠</t>
+  </si>
+  <si>
+    <t>Hoe tevreden bent u over de begeleiding van nieuwe collega's?</t>
+  </si>
+  <si>
+    <t>Hoe tevreden bent u over de betrokkenheid van uw collega's bij de school in het algemeen?</t>
+  </si>
+  <si>
+    <t>Heeft u zich in de afgelopen 12 maanden onveilig gevoeld in (individuele) gesprekken met collega's / leidinggevenden?</t>
+  </si>
+  <si>
+    <t>Heeft u zich in de afgelopen 12 maanden onveilig gevoeld in andere situaties met collega's / leidinggevenden?</t>
+  </si>
+  <si>
+    <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van verbale agressie (zoals schelden, pesten, bedreigen, lastig vallen per telefoon/email) door collega's / leidinggevenden?</t>
+  </si>
+  <si>
+    <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van discriminatie (op grond van geslacht, seksuele geaardheid, religie, huidskleur, afkomst) door collega's / leidinggevenden?</t>
+  </si>
+  <si>
+    <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van fysiek geweld (zoals duwen, slaan, schoppen, dreigen met wapens) door collega's/leidinggevenden?</t>
+  </si>
+  <si>
+    <t>Zijn er in de afgelopen 12 maanden op school eigendommen van u vernield, beschadigd of gestolen door collega's/leidinggevenden?</t>
+  </si>
+  <si>
+    <t>Is er een collega of zijn er collega's (ondergeschikten of meerderen) van u in de afgelopen 12 maanden op school slachtoffer geworden van één van de hiervoor genoemde onwenselijke gedragingen?</t>
+  </si>
+  <si>
     <r>
-      <t>Hoe belangrijk vindt u de bouwco</t>
+      <t>Welk rapportcijfer geeft u t.a.v. de wijze waarop binnen het bestuur ge_iuml_nspireerd</t>
     </r>
     <r>
       <rPr>
@@ -1086,7 +1086,12 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ö</t>
+      <t xml:space="preserve"> werken/leren van elkaar wordt gestimuleerd?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hoe belangrijk vindt u de bouwco_ouml_rdinatie</t>
     </r>
     <r>
       <rPr>
@@ -1095,44 +1100,21 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>rdinatoren voor een goede school, uitgedrukt in een rapportcijfer?</t>
+      <t xml:space="preserve"> voor een goede school, uitgedrukt in een rapportcijfer?</t>
     </r>
   </si>
   <si>
-    <t>Ik voel me vaak overbelast.</t>
-  </si>
-  <si>
-    <r>
-      <t>Welk rapportcijfer geeft u t.a.v. de wijze waarop binnen het bestuur ge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ï</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>nspireerd werken/leren van elkaar wordt gestimuleerd?</t>
-    </r>
-  </si>
-  <si>
-    <t>≠</t>
+    <t>Hoe tevreden bent u over de beschikbaarheid en aanspreekbaarheid van de bouwco_ouml_rdinatoren?</t>
+  </si>
+  <si>
+    <t>Hoe tevreden bent u over de ondersteuning door de bouwco_ouml_rdinatoren?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1155,12 +1137,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="30"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1281,81 +1257,81 @@
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1697,8 +1673,8 @@
   <dimension ref="A1:X401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A336" sqref="A336"/>
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G266" sqref="G266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1729,13 +1705,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -1749,7 +1725,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -1855,7 +1831,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="14"/>
       <c r="G10" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1987,7 +1963,7 @@
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="29" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="H20" s="30">
         <v>59</v>
@@ -2005,7 +1981,7 @@
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="29" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H21" s="28">
         <v>367</v>
@@ -2023,7 +1999,7 @@
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="29" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="H22" s="28">
         <v>59</v>
@@ -2043,7 +2019,7 @@
       <c r="A25" s="8"/>
       <c r="B25" s="14"/>
       <c r="G25" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2177,7 +2153,7 @@
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="29" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H35" s="28">
         <v>616</v>
@@ -2195,7 +2171,7 @@
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="29" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H36" s="28">
         <v>18</v>
@@ -2210,7 +2186,7 @@
       <c r="A38" s="8"/>
       <c r="B38" s="14"/>
       <c r="G38" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2348,7 +2324,7 @@
       <c r="A49" s="8"/>
       <c r="B49" s="14"/>
       <c r="G49" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2452,7 +2428,7 @@
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
       <c r="G57" s="29" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="H57" s="28">
         <v>61</v>
@@ -2471,7 +2447,7 @@
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
       <c r="G58" s="29" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="H58" s="28">
         <v>28</v>
@@ -2492,7 +2468,7 @@
       <c r="A61" s="8"/>
       <c r="B61" s="14"/>
       <c r="G61" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2638,7 +2614,7 @@
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
       <c r="G72" s="29" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="H72" s="28">
         <v>16</v>
@@ -2657,7 +2633,7 @@
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
       <c r="G73" s="29" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H73" s="28">
         <v>16</v>
@@ -2678,7 +2654,7 @@
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
       <c r="G74" s="29" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="H74" s="28">
         <v>367</v>
@@ -2697,7 +2673,7 @@
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
       <c r="G75" s="29" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="H75" s="28">
         <v>375</v>
@@ -2716,7 +2692,7 @@
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
       <c r="G76" s="29" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H76" s="28">
         <v>375</v>
@@ -2735,7 +2711,7 @@
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
       <c r="G77" s="29" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="H77" s="28">
         <v>375</v>
@@ -2754,7 +2730,7 @@
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
       <c r="G78" s="29" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="H78" s="28">
         <v>24</v>
@@ -2773,7 +2749,7 @@
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
       <c r="G79" s="29" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="H79" s="28">
         <v>24</v>
@@ -2794,7 +2770,7 @@
       <c r="A82" s="8"/>
       <c r="B82" s="14"/>
       <c r="G82" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2886,7 +2862,7 @@
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
       <c r="G89" s="29" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H89" s="28">
         <v>763</v>
@@ -2902,7 +2878,7 @@
       <c r="A91" s="8"/>
       <c r="B91" s="14"/>
       <c r="G91" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3034,7 +3010,7 @@
       <c r="E101" s="28"/>
       <c r="F101" s="28"/>
       <c r="G101" s="29" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H101" s="28">
         <v>296</v>
@@ -3052,7 +3028,7 @@
       <c r="E102" s="28"/>
       <c r="F102" s="28"/>
       <c r="G102" s="29" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H102" s="28">
         <v>296</v>
@@ -3070,7 +3046,7 @@
       <c r="E103" s="28"/>
       <c r="F103" s="28"/>
       <c r="G103" s="29" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H103" s="28">
         <v>296</v>
@@ -3090,7 +3066,7 @@
       <c r="E104" s="28"/>
       <c r="F104" s="28"/>
       <c r="G104" s="29" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H104" s="28">
         <v>647</v>
@@ -3105,7 +3081,7 @@
       <c r="A106" s="8"/>
       <c r="B106" s="14"/>
       <c r="G106" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3237,7 +3213,7 @@
       <c r="E116" s="28"/>
       <c r="F116" s="28"/>
       <c r="G116" s="29" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="H116" s="28">
         <v>367</v>
@@ -3255,7 +3231,7 @@
       <c r="E117" s="28"/>
       <c r="F117" s="28"/>
       <c r="G117" s="29" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="H117" s="28">
         <v>192</v>
@@ -3273,7 +3249,7 @@
       <c r="E118" s="28"/>
       <c r="F118" s="28"/>
       <c r="G118" s="29" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H118" s="28">
         <v>367</v>
@@ -3291,7 +3267,7 @@
       <c r="E119" s="28"/>
       <c r="F119" s="28"/>
       <c r="G119" s="29" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H119" s="28">
         <v>180</v>
@@ -3306,7 +3282,7 @@
       <c r="A121" s="8"/>
       <c r="B121" s="14"/>
       <c r="G121" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3440,7 +3416,7 @@
       <c r="E131" s="28"/>
       <c r="F131" s="28"/>
       <c r="G131" s="29" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H131" s="28">
         <v>41</v>
@@ -3458,7 +3434,7 @@
       <c r="E132" s="28"/>
       <c r="F132" s="28"/>
       <c r="G132" s="29" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="H132" s="28">
         <v>16</v>
@@ -3476,7 +3452,7 @@
       <c r="E133" s="28"/>
       <c r="F133" s="28"/>
       <c r="G133" s="29" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="H133" s="28">
         <v>192</v>
@@ -3494,7 +3470,7 @@
       <c r="E134" s="28"/>
       <c r="F134" s="28"/>
       <c r="G134" s="29" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="H134" s="28">
         <v>192</v>
@@ -3512,7 +3488,7 @@
       <c r="E135" s="28"/>
       <c r="F135" s="28"/>
       <c r="G135" s="29" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H135" s="28">
         <v>16</v>
@@ -3530,7 +3506,7 @@
       <c r="E136" s="28"/>
       <c r="F136" s="28"/>
       <c r="G136" s="29" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H136" s="28">
         <v>289</v>
@@ -3548,7 +3524,7 @@
       <c r="E137" s="28"/>
       <c r="F137" s="28"/>
       <c r="G137" s="29" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H137" s="28">
         <v>289</v>
@@ -3566,7 +3542,7 @@
       <c r="E138" s="28"/>
       <c r="F138" s="28"/>
       <c r="G138" s="29" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="H138" s="28">
         <v>289</v>
@@ -3581,7 +3557,7 @@
       <c r="A140" s="8"/>
       <c r="B140" s="14"/>
       <c r="G140" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -3733,7 +3709,7 @@
       <c r="A152" s="8"/>
       <c r="B152" s="14"/>
       <c r="G152" s="9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -3865,7 +3841,7 @@
       <c r="E162" s="28"/>
       <c r="F162" s="28"/>
       <c r="G162" s="29" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="H162" s="28">
         <v>16</v>
@@ -3883,7 +3859,7 @@
       <c r="E163" s="28"/>
       <c r="F163" s="28"/>
       <c r="G163" s="29" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H163" s="28">
         <v>28</v>
@@ -3901,7 +3877,7 @@
       <c r="E164" s="28"/>
       <c r="F164" s="28"/>
       <c r="G164" s="29" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H164" s="28">
         <v>192</v>
@@ -3919,7 +3895,7 @@
       <c r="E165" s="28"/>
       <c r="F165" s="28"/>
       <c r="G165" s="29" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="H165" s="28">
         <v>192</v>
@@ -3937,7 +3913,7 @@
       <c r="E166" s="28"/>
       <c r="F166" s="28"/>
       <c r="G166" s="29" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="H166" s="28">
         <v>16</v>
@@ -3955,7 +3931,7 @@
       <c r="E167" s="28"/>
       <c r="F167" s="28"/>
       <c r="G167" s="29" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H167" s="28">
         <v>28</v>
@@ -3973,7 +3949,7 @@
       <c r="E168" s="28"/>
       <c r="F168" s="28"/>
       <c r="G168" s="29" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="H168" s="28">
         <v>205</v>
@@ -3991,7 +3967,7 @@
       <c r="E169" s="28"/>
       <c r="F169" s="28"/>
       <c r="G169" s="29" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H169" s="28">
         <v>205</v>
@@ -4009,7 +3985,7 @@
       <c r="E170" s="28"/>
       <c r="F170" s="28"/>
       <c r="G170" s="29" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="H170" s="28">
         <v>192</v>
@@ -4027,7 +4003,7 @@
       <c r="E171" s="28"/>
       <c r="F171" s="28"/>
       <c r="G171" s="29" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H171" s="28">
         <v>192</v>
@@ -4042,7 +4018,7 @@
       <c r="A173" s="8"/>
       <c r="B173" s="14"/>
       <c r="G173" s="9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4164,7 +4140,7 @@
       <c r="E182" s="26"/>
       <c r="F182" s="26"/>
       <c r="G182" s="32" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H182" s="26">
         <v>822</v>
@@ -4182,7 +4158,7 @@
       <c r="E183" s="28"/>
       <c r="F183" s="28"/>
       <c r="G183" s="29" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="H183" s="28">
         <v>289</v>
@@ -4197,7 +4173,7 @@
       <c r="A185" s="8"/>
       <c r="B185" s="14"/>
       <c r="G185" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -4319,7 +4295,7 @@
       <c r="E194" s="28"/>
       <c r="F194" s="28"/>
       <c r="G194" s="29" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H194" s="28">
         <v>72</v>
@@ -4339,7 +4315,7 @@
       <c r="E195" s="28"/>
       <c r="F195" s="28"/>
       <c r="G195" s="29" t="s">
-        <v>249</v>
+        <v>343</v>
       </c>
       <c r="H195" s="28">
         <v>56</v>
@@ -4357,7 +4333,7 @@
       <c r="E196" s="28"/>
       <c r="F196" s="28"/>
       <c r="G196" s="29" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H196" s="28">
         <v>16</v>
@@ -4375,7 +4351,7 @@
       <c r="E197" s="28"/>
       <c r="F197" s="28"/>
       <c r="G197" s="29" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H197" s="28">
         <v>135</v>
@@ -4393,7 +4369,7 @@
       <c r="E198" s="28"/>
       <c r="F198" s="28"/>
       <c r="G198" s="29" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H198" s="28">
         <v>28</v>
@@ -4411,7 +4387,7 @@
       <c r="E199" s="28"/>
       <c r="F199" s="28"/>
       <c r="G199" s="29" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H199" s="28">
         <v>135</v>
@@ -4429,7 +4405,7 @@
       <c r="E200" s="28"/>
       <c r="F200" s="28"/>
       <c r="G200" s="29" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H200" s="28">
         <v>23</v>
@@ -4444,7 +4420,7 @@
       <c r="A202" s="8"/>
       <c r="B202" s="14"/>
       <c r="G202" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="203" spans="1:9" s="36" customFormat="1">
@@ -4611,7 +4587,7 @@
       <c r="E211" s="34"/>
       <c r="F211" s="34"/>
       <c r="G211" s="11" t="s">
-        <v>120</v>
+        <v>344</v>
       </c>
       <c r="H211" s="34">
         <v>500</v>
@@ -4630,7 +4606,7 @@
       <c r="E212" s="34"/>
       <c r="F212" s="34"/>
       <c r="G212" s="11" t="s">
-        <v>121</v>
+        <v>345</v>
       </c>
       <c r="H212" s="34">
         <v>500</v>
@@ -4649,7 +4625,7 @@
       <c r="E213" s="34"/>
       <c r="F213" s="34"/>
       <c r="G213" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H213" s="34">
         <v>500</v>
@@ -4668,7 +4644,7 @@
       <c r="E214" s="34"/>
       <c r="F214" s="34"/>
       <c r="G214" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H214" s="34">
         <v>500</v>
@@ -4687,7 +4663,7 @@
       <c r="E215" s="34"/>
       <c r="F215" s="34"/>
       <c r="G215" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H215" s="34">
         <v>500</v>
@@ -4706,7 +4682,7 @@
       <c r="E216" s="34"/>
       <c r="F216" s="34"/>
       <c r="G216" s="11" t="s">
-        <v>125</v>
+        <v>346</v>
       </c>
       <c r="H216" s="34">
         <v>500</v>
@@ -4725,7 +4701,7 @@
       <c r="E217" s="34"/>
       <c r="F217" s="34"/>
       <c r="G217" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H217" s="34">
         <v>500</v>
@@ -4744,7 +4720,7 @@
       <c r="E218" s="34"/>
       <c r="F218" s="34"/>
       <c r="G218" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H218" s="34">
         <v>500</v>
@@ -4763,7 +4739,7 @@
       <c r="E219" s="34"/>
       <c r="F219" s="34"/>
       <c r="G219" s="11" t="s">
-        <v>128</v>
+        <v>347</v>
       </c>
       <c r="H219" s="34">
         <v>500</v>
@@ -4782,7 +4758,7 @@
       <c r="E220" s="34"/>
       <c r="F220" s="34"/>
       <c r="G220" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H220" s="34">
         <v>500</v>
@@ -4801,7 +4777,7 @@
       <c r="E221" s="34"/>
       <c r="F221" s="34"/>
       <c r="G221" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H221" s="34">
         <v>500</v>
@@ -4820,7 +4796,7 @@
       <c r="E222" s="34"/>
       <c r="F222" s="34"/>
       <c r="G222" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H222" s="34">
         <v>500</v>
@@ -4839,7 +4815,7 @@
       <c r="E223" s="34"/>
       <c r="F223" s="34"/>
       <c r="G223" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H223" s="34">
         <v>500</v>
@@ -4858,7 +4834,7 @@
       <c r="E224" s="34"/>
       <c r="F224" s="34"/>
       <c r="G224" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H224" s="34">
         <v>500</v>
@@ -4877,7 +4853,7 @@
       <c r="E225" s="34"/>
       <c r="F225" s="34"/>
       <c r="G225" s="11" t="s">
-        <v>134</v>
+        <v>348</v>
       </c>
       <c r="H225" s="34">
         <v>500</v>
@@ -4896,7 +4872,7 @@
       <c r="E226" s="34"/>
       <c r="F226" s="34"/>
       <c r="G226" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H226" s="34">
         <v>500</v>
@@ -4915,7 +4891,7 @@
       <c r="E227" s="34"/>
       <c r="F227" s="34"/>
       <c r="G227" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H227" s="34">
         <v>500</v>
@@ -4934,7 +4910,7 @@
       <c r="E228" s="34"/>
       <c r="F228" s="34"/>
       <c r="G228" s="11" t="s">
-        <v>137</v>
+        <v>349</v>
       </c>
       <c r="H228" s="34">
         <v>500</v>
@@ -4953,7 +4929,7 @@
       <c r="E229" s="34"/>
       <c r="F229" s="34"/>
       <c r="G229" s="11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H229" s="34">
         <v>500</v>
@@ -4972,7 +4948,7 @@
       <c r="E230" s="34"/>
       <c r="F230" s="34"/>
       <c r="G230" s="11" t="s">
-        <v>139</v>
+        <v>350</v>
       </c>
       <c r="H230" s="34">
         <v>500</v>
@@ -4991,7 +4967,7 @@
       <c r="E231" s="34"/>
       <c r="F231" s="34"/>
       <c r="G231" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H231" s="34">
         <v>500</v>
@@ -5010,7 +4986,7 @@
       <c r="E232" s="34"/>
       <c r="F232" s="34"/>
       <c r="G232" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H232" s="34">
         <v>500</v>
@@ -5029,7 +5005,7 @@
       <c r="E233" s="34"/>
       <c r="F233" s="34"/>
       <c r="G233" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H233" s="34">
         <v>500</v>
@@ -5048,7 +5024,7 @@
       <c r="E234" s="34"/>
       <c r="F234" s="34"/>
       <c r="G234" s="11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H234" s="34">
         <v>500</v>
@@ -5067,7 +5043,7 @@
       <c r="E235" s="34"/>
       <c r="F235" s="34"/>
       <c r="G235" s="11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H235" s="34">
         <v>500</v>
@@ -5086,7 +5062,7 @@
       <c r="E236" s="34"/>
       <c r="F236" s="34"/>
       <c r="G236" s="11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H236" s="34">
         <v>500</v>
@@ -5105,7 +5081,7 @@
       <c r="E237" s="34"/>
       <c r="F237" s="34"/>
       <c r="G237" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H237" s="34">
         <v>500</v>
@@ -5124,7 +5100,7 @@
       <c r="E238" s="34"/>
       <c r="F238" s="34"/>
       <c r="G238" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H238" s="34">
         <v>500</v>
@@ -5143,7 +5119,7 @@
       <c r="E239" s="34"/>
       <c r="F239" s="34"/>
       <c r="G239" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H239" s="34">
         <v>500</v>
@@ -5156,7 +5132,7 @@
     </row>
     <row r="241" spans="1:8" ht="18">
       <c r="G241" s="12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -5179,7 +5155,7 @@
         <v>6860</v>
       </c>
       <c r="G242" s="32" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H242" s="26">
         <v>376</v>
@@ -5201,7 +5177,7 @@
       <c r="E243" s="26"/>
       <c r="F243" s="26"/>
       <c r="G243" s="32" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H243" s="26">
         <v>309</v>
@@ -5221,7 +5197,7 @@
       <c r="E244" s="26"/>
       <c r="F244" s="26"/>
       <c r="G244" s="32" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="H244" s="26">
         <v>82</v>
@@ -5241,7 +5217,7 @@
       <c r="E245" s="26"/>
       <c r="F245" s="26"/>
       <c r="G245" s="32" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H245" s="26">
         <v>281</v>
@@ -5263,7 +5239,7 @@
       <c r="E246" s="26"/>
       <c r="F246" s="26"/>
       <c r="G246" s="32" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H246" s="26">
         <v>110</v>
@@ -5281,7 +5257,7 @@
       <c r="E247" s="26"/>
       <c r="F247" s="26"/>
       <c r="G247" s="32" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H247" s="26">
         <v>16</v>
@@ -5301,7 +5277,7 @@
       <c r="E248" s="26"/>
       <c r="F248" s="26"/>
       <c r="G248" s="32" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H248" s="26">
         <v>300</v>
@@ -5314,7 +5290,7 @@
     </row>
     <row r="250" spans="1:8" ht="18">
       <c r="G250" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -5335,7 +5311,7 @@
       </c>
       <c r="F251" s="28"/>
       <c r="G251" s="29" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H251" s="28">
         <v>109</v>
@@ -5359,7 +5335,7 @@
       </c>
       <c r="F252" s="28"/>
       <c r="G252" s="29" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H252" s="28">
         <v>109</v>
@@ -5385,7 +5361,7 @@
         <v>2674</v>
       </c>
       <c r="G253" s="29" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H253" s="28">
         <v>125</v>
@@ -5409,7 +5385,7 @@
       </c>
       <c r="F254" s="28"/>
       <c r="G254" s="29" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H254" s="28">
         <v>109</v>
@@ -5433,7 +5409,7 @@
       </c>
       <c r="F255" s="28"/>
       <c r="G255" s="29" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H255" s="28">
         <v>109</v>
@@ -5457,7 +5433,7 @@
       </c>
       <c r="F256" s="28"/>
       <c r="G256" s="29" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H256" s="28">
         <v>109</v>
@@ -5465,7 +5441,7 @@
     </row>
     <row r="258" spans="1:8" ht="18">
       <c r="G258" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -5486,7 +5462,7 @@
       </c>
       <c r="F259" s="26"/>
       <c r="G259" s="32" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H259" s="26">
         <v>143</v>
@@ -5512,7 +5488,7 @@
         <v>5209</v>
       </c>
       <c r="G260" s="32" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H260" s="26">
         <v>168</v>
@@ -5548,7 +5524,7 @@
       <c r="E262" s="26"/>
       <c r="F262" s="26"/>
       <c r="G262" s="32" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H262" s="26">
         <v>16</v>
@@ -5566,7 +5542,7 @@
       <c r="E263" s="26"/>
       <c r="F263" s="26"/>
       <c r="G263" s="32" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H263" s="26">
         <v>289</v>
@@ -5574,7 +5550,7 @@
     </row>
     <row r="265" spans="1:8" ht="18">
       <c r="G265" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -5595,7 +5571,7 @@
       </c>
       <c r="F266" s="28"/>
       <c r="G266" s="29" t="s">
-        <v>184</v>
+        <v>354</v>
       </c>
       <c r="H266" s="28">
         <v>358</v>
@@ -5617,7 +5593,7 @@
       <c r="E267" s="28"/>
       <c r="F267" s="28"/>
       <c r="G267" s="29" t="s">
-        <v>185</v>
+        <v>353</v>
       </c>
       <c r="H267" s="28">
         <v>333</v>
@@ -5637,7 +5613,7 @@
       <c r="E268" s="28"/>
       <c r="F268" s="28"/>
       <c r="G268" s="29" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H268" s="28">
         <v>274</v>
@@ -5645,7 +5621,7 @@
     </row>
     <row r="270" spans="1:8" ht="18">
       <c r="G270" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -5660,7 +5636,7 @@
       <c r="E271" s="28"/>
       <c r="F271" s="28"/>
       <c r="G271" s="29" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H271" s="28">
         <v>241</v>
@@ -5678,7 +5654,7 @@
       <c r="E272" s="28"/>
       <c r="F272" s="28"/>
       <c r="G272" s="29" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H272" s="28">
         <v>241</v>
@@ -5696,7 +5672,7 @@
       <c r="E273" s="28"/>
       <c r="F273" s="28"/>
       <c r="G273" s="29" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H273" s="28">
         <v>241</v>
@@ -5714,7 +5690,7 @@
       <c r="E274" s="28"/>
       <c r="F274" s="28"/>
       <c r="G274" s="29" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H274" s="28">
         <v>241</v>
@@ -5722,7 +5698,7 @@
     </row>
     <row r="276" spans="1:10" ht="15.75" customHeight="1">
       <c r="G276" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="15.75" customHeight="1">
@@ -5737,7 +5713,7 @@
       <c r="E277" s="28"/>
       <c r="F277" s="28"/>
       <c r="G277" s="29" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H277" s="28">
         <v>337</v>
@@ -5758,7 +5734,7 @@
       <c r="E278" s="28"/>
       <c r="F278" s="28"/>
       <c r="G278" s="29" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="H278" s="28">
         <v>57</v>
@@ -5778,7 +5754,7 @@
       <c r="E279" s="28"/>
       <c r="F279" s="28"/>
       <c r="G279" s="29" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="H279" s="28">
         <v>57</v>
@@ -5798,7 +5774,7 @@
       <c r="E280" s="28"/>
       <c r="F280" s="28"/>
       <c r="G280" s="29" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H280" s="28">
         <v>48</v>
@@ -5819,7 +5795,7 @@
       <c r="E281" s="28"/>
       <c r="F281" s="28"/>
       <c r="G281" s="29" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H281" s="28">
         <v>48</v>
@@ -5838,7 +5814,7 @@
       <c r="E282" s="28"/>
       <c r="F282" s="28"/>
       <c r="G282" s="29" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="H282" s="28">
         <v>59</v>
@@ -5857,7 +5833,7 @@
       <c r="E283" s="28"/>
       <c r="F283" s="28"/>
       <c r="G283" s="29" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H283" s="28">
         <v>23</v>
@@ -5876,7 +5852,7 @@
       <c r="E284" s="28"/>
       <c r="F284" s="28"/>
       <c r="G284" s="29" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H284" s="28">
         <v>337</v>
@@ -5888,14 +5864,14 @@
         <v>2320</v>
       </c>
       <c r="B285" s="38" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C285" s="28"/>
       <c r="D285" s="28"/>
       <c r="E285" s="28"/>
       <c r="F285" s="28"/>
       <c r="G285" s="29" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H285" s="28">
         <v>0</v>
@@ -5918,7 +5894,7 @@
       <c r="E287" s="17"/>
       <c r="F287" s="17"/>
       <c r="G287" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="J287" s="24"/>
     </row>
@@ -5934,7 +5910,7 @@
       <c r="E288" s="28"/>
       <c r="F288" s="28"/>
       <c r="G288" s="29" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H288" s="28">
         <v>337</v>
@@ -5955,7 +5931,7 @@
       <c r="E289" s="28"/>
       <c r="F289" s="28"/>
       <c r="G289" s="29" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H289" s="26">
         <v>356</v>
@@ -5976,7 +5952,7 @@
       <c r="E290" s="28"/>
       <c r="F290" s="28"/>
       <c r="G290" s="29" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H290" s="26">
         <v>356</v>
@@ -5997,7 +5973,7 @@
       <c r="E291" s="28"/>
       <c r="F291" s="28"/>
       <c r="G291" s="29" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H291" s="26">
         <v>356</v>
@@ -6016,7 +5992,7 @@
       <c r="E292" s="28"/>
       <c r="F292" s="28"/>
       <c r="G292" s="29" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H292" s="26">
         <v>337</v>
@@ -6037,7 +6013,7 @@
       <c r="E293" s="28"/>
       <c r="F293" s="28"/>
       <c r="G293" s="29" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H293" s="26">
         <v>356</v>
@@ -6058,7 +6034,7 @@
       <c r="E294" s="28"/>
       <c r="F294" s="28"/>
       <c r="G294" s="29" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H294" s="26">
         <v>356</v>
@@ -6081,7 +6057,7 @@
       <c r="E296" s="17"/>
       <c r="F296" s="17"/>
       <c r="G296" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="J296" s="24"/>
     </row>
@@ -6099,7 +6075,7 @@
       <c r="E297" s="28"/>
       <c r="F297" s="28"/>
       <c r="G297" s="29" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H297" s="26">
         <v>356</v>
@@ -6122,7 +6098,7 @@
       <c r="E298" s="28"/>
       <c r="F298" s="28"/>
       <c r="G298" s="29" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H298" s="26">
         <v>394</v>
@@ -6143,7 +6119,7 @@
       <c r="E299" s="28"/>
       <c r="F299" s="28"/>
       <c r="G299" s="29" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H299" s="26">
         <v>356</v>
@@ -6166,7 +6142,7 @@
       <c r="E300" s="28"/>
       <c r="F300" s="28"/>
       <c r="G300" s="29" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H300" s="26">
         <v>394</v>
@@ -6189,7 +6165,7 @@
       <c r="E301" s="28"/>
       <c r="F301" s="28"/>
       <c r="G301" s="29" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H301" s="26">
         <v>394</v>
@@ -6212,7 +6188,7 @@
       <c r="E303" s="17"/>
       <c r="F303" s="17"/>
       <c r="G303" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="304" spans="1:10" ht="15.75" customHeight="1">
@@ -6235,7 +6211,7 @@
         <v>6081</v>
       </c>
       <c r="G304" s="29" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H304" s="28">
         <v>460</v>
@@ -6258,7 +6234,7 @@
       <c r="E305" s="28"/>
       <c r="F305" s="28"/>
       <c r="G305" s="29" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H305" s="28">
         <v>323</v>
@@ -6277,7 +6253,7 @@
       <c r="E306" s="28"/>
       <c r="F306" s="28"/>
       <c r="G306" s="29" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H306" s="28">
         <v>337</v>
@@ -6296,7 +6272,7 @@
       <c r="E307" s="28"/>
       <c r="F307" s="28"/>
       <c r="G307" s="29" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H307" s="28">
         <v>337</v>
@@ -6315,7 +6291,7 @@
       <c r="E308" s="28"/>
       <c r="F308" s="28"/>
       <c r="G308" s="29" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H308" s="28">
         <v>337</v>
@@ -6334,7 +6310,7 @@
       <c r="E309" s="28"/>
       <c r="F309" s="28"/>
       <c r="G309" s="29" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H309" s="28">
         <v>337</v>
@@ -6353,7 +6329,7 @@
       <c r="E310" s="28"/>
       <c r="F310" s="28"/>
       <c r="G310" s="29" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H310" s="28">
         <v>337</v>
@@ -6376,7 +6352,7 @@
       <c r="E312" s="17"/>
       <c r="F312" s="17"/>
       <c r="G312" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="J312" s="24"/>
     </row>
@@ -6394,7 +6370,7 @@
       <c r="E313" s="28"/>
       <c r="F313" s="28"/>
       <c r="G313" s="29" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H313" s="26">
         <v>356</v>
@@ -6415,7 +6391,7 @@
       <c r="E314" s="28"/>
       <c r="F314" s="28"/>
       <c r="G314" s="29" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H314" s="26">
         <v>356</v>
@@ -6438,7 +6414,7 @@
       <c r="E315" s="28"/>
       <c r="F315" s="28"/>
       <c r="G315" s="29" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H315" s="26">
         <v>394</v>
@@ -6461,7 +6437,7 @@
       <c r="E316" s="28"/>
       <c r="F316" s="28"/>
       <c r="G316" s="29" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H316" s="26">
         <v>394</v>
@@ -6484,7 +6460,7 @@
       <c r="E317" s="28"/>
       <c r="F317" s="28"/>
       <c r="G317" s="29" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H317" s="26">
         <v>394</v>
@@ -6507,7 +6483,7 @@
       <c r="E319" s="17"/>
       <c r="F319" s="17"/>
       <c r="G319" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="J319" s="24"/>
     </row>
@@ -6525,7 +6501,7 @@
       <c r="E320" s="28"/>
       <c r="F320" s="28"/>
       <c r="G320" s="29" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H320" s="26">
         <v>356</v>
@@ -6546,7 +6522,7 @@
       <c r="E321" s="28"/>
       <c r="F321" s="28"/>
       <c r="G321" s="29" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H321" s="26">
         <v>356</v>
@@ -6567,7 +6543,7 @@
       <c r="E322" s="28"/>
       <c r="F322" s="28"/>
       <c r="G322" s="29" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H322" s="26">
         <v>356</v>
@@ -6588,7 +6564,7 @@
       <c r="E323" s="28"/>
       <c r="F323" s="28"/>
       <c r="G323" s="29" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H323" s="26">
         <v>356</v>
@@ -6609,7 +6585,7 @@
       <c r="E324" s="28"/>
       <c r="F324" s="28"/>
       <c r="G324" s="29" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H324" s="26">
         <v>356</v>
@@ -6630,7 +6606,7 @@
       <c r="E325" s="28"/>
       <c r="F325" s="28"/>
       <c r="G325" s="29" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H325" s="26">
         <v>356</v>
@@ -6653,7 +6629,7 @@
       <c r="E327" s="17"/>
       <c r="F327" s="17"/>
       <c r="G327" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="J327" s="24"/>
     </row>
@@ -6671,7 +6647,7 @@
       <c r="E328" s="28"/>
       <c r="F328" s="28"/>
       <c r="G328" s="29" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H328" s="26">
         <v>356</v>
@@ -6692,7 +6668,7 @@
       <c r="E329" s="28"/>
       <c r="F329" s="28"/>
       <c r="G329" s="29" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="H329" s="26">
         <v>356</v>
@@ -6713,7 +6689,7 @@
       <c r="E330" s="28"/>
       <c r="F330" s="28"/>
       <c r="G330" s="29" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H330" s="26">
         <v>356</v>
@@ -6734,7 +6710,7 @@
       <c r="E331" s="28"/>
       <c r="F331" s="28"/>
       <c r="G331" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H331" s="26">
         <v>356</v>
@@ -6755,7 +6731,7 @@
       <c r="E332" s="28"/>
       <c r="F332" s="28"/>
       <c r="G332" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H332" s="26">
         <v>356</v>
@@ -6776,7 +6752,7 @@
       <c r="E333" s="28"/>
       <c r="F333" s="28"/>
       <c r="G333" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H333" s="26">
         <v>356</v>
@@ -6797,7 +6773,7 @@
       <c r="C335" s="22"/>
       <c r="D335" s="22"/>
       <c r="G335" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="15.75" customHeight="1">
@@ -6812,7 +6788,7 @@
       <c r="E336" s="28"/>
       <c r="F336" s="28"/>
       <c r="G336" s="29" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H336" s="28">
         <v>649</v>
@@ -6832,7 +6808,7 @@
       <c r="E337" s="28"/>
       <c r="F337" s="28"/>
       <c r="G337" s="29" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H337" s="28">
         <v>60</v>
@@ -6850,7 +6826,7 @@
       <c r="E338" s="28"/>
       <c r="F338" s="28"/>
       <c r="G338" s="29" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H338" s="28">
         <v>37</v>
@@ -6859,7 +6835,7 @@
     <row r="339" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="340" spans="1:8" ht="15.75" customHeight="1">
       <c r="G340" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -6874,7 +6850,7 @@
       <c r="E341" s="28"/>
       <c r="F341" s="28"/>
       <c r="G341" s="29" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H341" s="28">
         <v>375</v>
@@ -6892,7 +6868,7 @@
       <c r="E342" s="28"/>
       <c r="F342" s="28"/>
       <c r="G342" s="29" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H342" s="28">
         <v>375</v>
@@ -6910,7 +6886,7 @@
       <c r="E343" s="28"/>
       <c r="F343" s="28"/>
       <c r="G343" s="29" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="H343" s="28">
         <v>375</v>
@@ -6930,7 +6906,7 @@
       <c r="E344" s="28"/>
       <c r="F344" s="28"/>
       <c r="G344" s="29" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H344" s="28">
         <v>483</v>
@@ -6948,7 +6924,7 @@
       <c r="E345" s="28"/>
       <c r="F345" s="28"/>
       <c r="G345" s="29" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="H345" s="28">
         <v>375</v>
@@ -6966,7 +6942,7 @@
       <c r="E346" s="28"/>
       <c r="F346" s="28"/>
       <c r="G346" s="29" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H346" s="28">
         <v>296</v>
@@ -6984,7 +6960,7 @@
       <c r="E347" s="28"/>
       <c r="F347" s="28"/>
       <c r="G347" s="29" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="H347" s="28">
         <v>375</v>
@@ -6998,7 +6974,7 @@
     <row r="349" spans="1:8" ht="18">
       <c r="B349" s="22"/>
       <c r="G349" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H349" s="22"/>
     </row>
@@ -7018,7 +6994,7 @@
       <c r="E350" s="28"/>
       <c r="F350" s="28"/>
       <c r="G350" s="29" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H350" s="28">
         <v>389</v>
@@ -7036,7 +7012,7 @@
       <c r="E351" s="28"/>
       <c r="F351" s="28"/>
       <c r="G351" s="29" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H351" s="28">
         <v>59</v>
@@ -7054,7 +7030,7 @@
       <c r="E352" s="28"/>
       <c r="F352" s="28"/>
       <c r="G352" s="29" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="H352" s="28">
         <v>367</v>
@@ -7068,7 +7044,7 @@
     <row r="354" spans="1:8" ht="18">
       <c r="B354" s="21"/>
       <c r="G354" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H354" s="22"/>
     </row>
@@ -7084,7 +7060,7 @@
       <c r="E355" s="28"/>
       <c r="F355" s="28"/>
       <c r="G355" s="29" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="H355" s="28">
         <v>192</v>
@@ -7104,7 +7080,7 @@
       <c r="E356" s="28"/>
       <c r="F356" s="28"/>
       <c r="G356" s="29" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H356" s="28">
         <v>185</v>
@@ -7124,7 +7100,7 @@
       <c r="E357" s="28"/>
       <c r="F357" s="28"/>
       <c r="G357" s="29" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H357" s="28">
         <v>526</v>
@@ -7146,7 +7122,7 @@
       <c r="E358" s="28"/>
       <c r="F358" s="28"/>
       <c r="G358" s="29" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="H358" s="28">
         <v>901</v>
@@ -7164,7 +7140,7 @@
       <c r="E359" s="28"/>
       <c r="F359" s="28"/>
       <c r="G359" s="29" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="H359" s="28">
         <v>259</v>
@@ -7184,7 +7160,7 @@
       <c r="E360" s="28"/>
       <c r="F360" s="28"/>
       <c r="G360" s="29" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="H360" s="28">
         <v>626</v>
@@ -7202,7 +7178,7 @@
       <c r="E361" s="28"/>
       <c r="F361" s="28"/>
       <c r="G361" s="29" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H361" s="28">
         <v>259</v>
@@ -7222,7 +7198,7 @@
       <c r="E362" s="28"/>
       <c r="F362" s="28"/>
       <c r="G362" s="29" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H362" s="28">
         <v>185</v>
@@ -7240,7 +7216,7 @@
       <c r="E363" s="28"/>
       <c r="F363" s="28"/>
       <c r="G363" s="29" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H363" s="28">
         <v>152</v>
@@ -7262,7 +7238,7 @@
       <c r="E364" s="28"/>
       <c r="F364" s="28"/>
       <c r="G364" s="29" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="H364" s="28">
         <v>878</v>
@@ -7280,7 +7256,7 @@
       <c r="E365" s="28"/>
       <c r="F365" s="28"/>
       <c r="G365" s="29" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H365" s="28">
         <v>375</v>
@@ -7298,7 +7274,7 @@
       <c r="E366" s="28"/>
       <c r="F366" s="28"/>
       <c r="G366" s="29" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H366" s="28">
         <v>467</v>
@@ -7316,7 +7292,7 @@
       <c r="E367" s="28"/>
       <c r="F367" s="28"/>
       <c r="G367" s="29" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="H367" s="28">
         <v>259</v>
@@ -7330,7 +7306,7 @@
     <row r="369" spans="1:8" ht="18">
       <c r="B369" s="22"/>
       <c r="G369" s="1" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H369" s="22"/>
     </row>
@@ -7348,7 +7324,7 @@
       <c r="E370" s="28"/>
       <c r="F370" s="28"/>
       <c r="G370" s="29" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H370" s="28">
         <v>647</v>
@@ -7366,7 +7342,7 @@
       <c r="E371" s="28"/>
       <c r="F371" s="28"/>
       <c r="G371" s="29" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H371" s="28">
         <v>28</v>
@@ -7388,7 +7364,7 @@
       <c r="E372" s="28"/>
       <c r="F372" s="28"/>
       <c r="G372" s="29" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H372" s="28">
         <v>968</v>
@@ -7406,7 +7382,7 @@
       <c r="E373" s="28"/>
       <c r="F373" s="28"/>
       <c r="G373" s="29" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H373" s="28">
         <v>375</v>
@@ -7424,7 +7400,7 @@
       <c r="E374" s="28"/>
       <c r="F374" s="28"/>
       <c r="G374" s="29" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="H374" s="28">
         <v>180</v>
@@ -7442,7 +7418,7 @@
       <c r="E375" s="28"/>
       <c r="F375" s="28"/>
       <c r="G375" s="29" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="H375" s="28">
         <v>289</v>
@@ -7460,7 +7436,7 @@
       <c r="E376" s="28"/>
       <c r="F376" s="28"/>
       <c r="G376" s="29" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="H376" s="28">
         <v>289</v>
@@ -7478,7 +7454,7 @@
       <c r="E377" s="28"/>
       <c r="F377" s="28"/>
       <c r="G377" s="29" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="H377" s="28">
         <v>289</v>
@@ -7496,7 +7472,7 @@
       <c r="E378" s="28"/>
       <c r="F378" s="28"/>
       <c r="G378" s="29" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="H378" s="28">
         <v>289</v>
@@ -7514,7 +7490,7 @@
       <c r="E379" s="28"/>
       <c r="F379" s="28"/>
       <c r="G379" s="29" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="H379" s="28">
         <v>289</v>
@@ -7532,7 +7508,7 @@
       <c r="E380" s="28"/>
       <c r="F380" s="28"/>
       <c r="G380" s="29" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="H380" s="28">
         <v>289</v>
@@ -7550,7 +7526,7 @@
       <c r="E381" s="28"/>
       <c r="F381" s="28"/>
       <c r="G381" s="29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H381" s="28">
         <v>289</v>
@@ -7568,7 +7544,7 @@
       <c r="E382" s="28"/>
       <c r="F382" s="28"/>
       <c r="G382" s="29" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="H382" s="28">
         <v>289</v>
@@ -7586,7 +7562,7 @@
       <c r="E383" s="28"/>
       <c r="F383" s="28"/>
       <c r="G383" s="29" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H383" s="28">
         <v>289</v>
@@ -7604,7 +7580,7 @@
       <c r="E384" s="28"/>
       <c r="F384" s="28"/>
       <c r="G384" s="29" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H384" s="28">
         <v>289</v>
@@ -7618,7 +7594,7 @@
     <row r="386" spans="1:24" ht="18">
       <c r="B386" s="22"/>
       <c r="G386" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="H386" s="22"/>
     </row>
@@ -7634,7 +7610,7 @@
       <c r="E387" s="28"/>
       <c r="F387" s="28"/>
       <c r="G387" s="29" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="H387" s="28">
         <v>26</v>
@@ -7652,7 +7628,7 @@
       <c r="E388" s="28"/>
       <c r="F388" s="28"/>
       <c r="G388" s="29" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="H388" s="28">
         <v>26</v>
@@ -7670,7 +7646,7 @@
       <c r="E389" s="28"/>
       <c r="F389" s="28"/>
       <c r="G389" s="29" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="H389" s="28">
         <v>26</v>
@@ -7688,13 +7664,13 @@
       <c r="E390" s="28"/>
       <c r="F390" s="28"/>
       <c r="G390" s="29" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="H390" s="28">
         <v>26</v>
       </c>
       <c r="X390" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="391" spans="1:24">
@@ -7709,7 +7685,7 @@
       <c r="E391" s="28"/>
       <c r="F391" s="28"/>
       <c r="G391" s="29" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="H391" s="28">
         <v>26</v>
@@ -7723,7 +7699,7 @@
     <row r="393" spans="1:24" ht="18">
       <c r="B393" s="22"/>
       <c r="G393" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="H393" s="22"/>
     </row>
@@ -7739,7 +7715,7 @@
       <c r="E394" s="28"/>
       <c r="F394" s="28"/>
       <c r="G394" s="29" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="H394" s="28">
         <v>40</v>
@@ -7757,7 +7733,7 @@
       <c r="E395" s="28"/>
       <c r="F395" s="28"/>
       <c r="G395" s="29" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H395" s="28">
         <v>40</v>

--- a/source_docs/ptp.xlsx
+++ b/source_docs/ptp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22220"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="20" windowWidth="26440" windowHeight="19740"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="342">
   <si>
     <t>Nieuwe vraagnummer id</t>
   </si>
@@ -365,9 +365,6 @@
     <t>10000+</t>
   </si>
   <si>
-    <t>Bent u een man of een vrouw?</t>
-  </si>
-  <si>
     <t>Heeft u zich in de afgelopen 12 maanden onveilig gevoeld in de klas tijdens de les?</t>
   </si>
   <si>
@@ -494,9 +491,6 @@
     <t>ALGEMENE TEVREDENHEID EN BETROKKENHEID</t>
   </si>
   <si>
-    <t>SOCIALE VEILIGHEID</t>
-  </si>
-  <si>
     <t>ZORGSTRUCTUUR</t>
   </si>
   <si>
@@ -578,9 +572,6 @@
     <t>Hoeveel tijd per week maakt u gebruik van de digitale schoolborden ter ondersteuning van uw lessen?</t>
   </si>
   <si>
-    <t>Hoe belangrijk vindt u de computers ter ondersteuning van de lessen?</t>
-  </si>
-  <si>
     <t>Heeft nog geen nummer</t>
   </si>
   <si>
@@ -659,9 +650,6 @@
     <t>Hoe tevreden bent u over de inzetbaarheid van het digitale schoolbord bij het vak rekenen?</t>
   </si>
   <si>
-    <t>Hoe tevreden bent u over de inzetbaarheid van het digitale schoolbord bij het vak wereldoriëntatie?</t>
-  </si>
-  <si>
     <t>Hoe belangrijk vindt u de inzetbaarheid van het digitale schoolbord voor het vak taal?</t>
   </si>
   <si>
@@ -677,9 +665,6 @@
     <t>Hoe tevreden bent u over de inzetbaarheid van de computers bij het vak rekenen?</t>
   </si>
   <si>
-    <t>Hoe tevreden bent u over de inzetbaarheid van de computers bij het vak wereldoriëntatie?</t>
-  </si>
-  <si>
     <t>Hoe belangrijk vindt u de inzetbaarheid van de computers bij het vak taal?</t>
   </si>
   <si>
@@ -710,9 +695,6 @@
     <t>ICT - ONDERWIJSINHOUDELIJK GEDEELTE VAN DE SCHOOLCOMPURTERS</t>
   </si>
   <si>
-    <t>BOUWCOÖRDINATOREN</t>
-  </si>
-  <si>
     <t>Hoe tevreden bent u over de dienstverlening door de bedrijfsgezondheidsdienst?</t>
   </si>
   <si>
@@ -908,9 +890,6 @@
     <t>Hoe tevreden bent u over de herkenbaarheid van de christelijke identiteit van de school?</t>
   </si>
   <si>
-    <t>Hoe belangrijk vindt u de christelijke identiteit voor een goede school?</t>
-  </si>
-  <si>
     <t>Ik voel mij verantwoordelijk voor mijn eigen ontwikkeling.</t>
   </si>
   <si>
@@ -932,21 +911,6 @@
     <t>Zijn uw verantwoordelijkheden (voldoende) duidelijk?</t>
   </si>
   <si>
-    <t>Hoe belangrijk vindt u dat de nieuwe directeur leiding geeft aan de school?</t>
-  </si>
-  <si>
-    <t>Hoe belangrijk vindt u dat de nieuwe directeur zichtbaar is in de school?</t>
-  </si>
-  <si>
-    <t>Hoe belangrijk vindt u dat de nieuwe directeur zichtbaar is als vertegenwoordiger naar buiten toe?</t>
-  </si>
-  <si>
-    <t>Hoe belangrijk vindt u dat de nieuwe directeur beschikt over hoge communicatieve vaardigheden in woord en schrift naar het team?</t>
-  </si>
-  <si>
-    <t>Hoe belangrijk vindt u dat de nieuwe directeur beschikt over hoge communicatieve vaardigheden in woord en schrift naar de ouders/verzorgers?</t>
-  </si>
-  <si>
     <t>Hoe tevreden bent u over de begeleiding als startende leerkracht?</t>
   </si>
   <si>
@@ -1025,15 +989,9 @@
     <t>Welk rapportcijfer geeft u t.a.v. het functioneren van het bestuur?</t>
   </si>
   <si>
-    <t>NIEUWE DIRECTEUR</t>
-  </si>
-  <si>
     <t>IDENTITEIT VAN DE SCHOOL</t>
   </si>
   <si>
-    <t>INTERN BEGELEIDER</t>
-  </si>
-  <si>
     <t>Hoe tevreden bent u over de communicatie door de schoolleider/directeur?</t>
   </si>
   <si>
@@ -1044,9 +1002,6 @@
   </si>
   <si>
     <t>Ik voel me vaak overbelast.</t>
-  </si>
-  <si>
-    <t>≠</t>
   </si>
   <si>
     <t>Hoe tevreden bent u over de begeleiding van nieuwe collega's?</t>
@@ -1090,31 +1045,26 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Hoe belangrijk vindt u de bouwco_ouml_rdinatie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> voor een goede school, uitgedrukt in een rapportcijfer?</t>
-    </r>
-  </si>
-  <si>
     <t>Hoe tevreden bent u over de beschikbaarheid en aanspreekbaarheid van de bouwco_ouml_rdinatoren?</t>
   </si>
   <si>
     <t>Hoe tevreden bent u over de ondersteuning door de bouwco_ouml_rdinatoren?</t>
+  </si>
+  <si>
+    <t>SOCIALE VEILIGHEID PERSONEEL</t>
+  </si>
+  <si>
+    <t>Hoe tevreden bent u over de inzetbaarheid van de computers bij het vak wereldori&amp;euml;ntatie?</t>
+  </si>
+  <si>
+    <t>Hoe tevreden bent u over de inzetbaarheid van het digitale schoolbord bij het vak wereldori&amp;euml;ntatie?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1220,6 +1170,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1244,7 +1202,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -1254,6 +1212,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1335,7 +1298,12 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="2"/>
@@ -1670,11 +1638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X401"/>
+  <dimension ref="A1:J386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G266" sqref="G266"/>
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G320" sqref="G320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1705,13 +1673,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -1725,7 +1693,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -1831,7 +1799,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="14"/>
       <c r="G10" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1963,7 +1931,7 @@
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="29" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H20" s="30">
         <v>59</v>
@@ -1981,7 +1949,7 @@
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="29" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H21" s="28">
         <v>367</v>
@@ -1999,7 +1967,7 @@
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="29" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H22" s="28">
         <v>59</v>
@@ -2019,7 +1987,7 @@
       <c r="A25" s="8"/>
       <c r="B25" s="14"/>
       <c r="G25" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2153,7 +2121,7 @@
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H35" s="28">
         <v>616</v>
@@ -2171,7 +2139,7 @@
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="29" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H36" s="28">
         <v>18</v>
@@ -2186,7 +2154,7 @@
       <c r="A38" s="8"/>
       <c r="B38" s="14"/>
       <c r="G38" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2324,7 +2292,7 @@
       <c r="A49" s="8"/>
       <c r="B49" s="14"/>
       <c r="G49" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2428,7 +2396,7 @@
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
       <c r="G57" s="29" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H57" s="28">
         <v>61</v>
@@ -2447,7 +2415,7 @@
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
       <c r="G58" s="29" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H58" s="28">
         <v>28</v>
@@ -2468,7 +2436,7 @@
       <c r="A61" s="8"/>
       <c r="B61" s="14"/>
       <c r="G61" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2614,7 +2582,7 @@
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
       <c r="G72" s="29" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="H72" s="28">
         <v>16</v>
@@ -2633,7 +2601,7 @@
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
       <c r="G73" s="29" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H73" s="28">
         <v>16</v>
@@ -2654,7 +2622,7 @@
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
       <c r="G74" s="29" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="H74" s="28">
         <v>367</v>
@@ -2673,7 +2641,7 @@
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
       <c r="G75" s="29" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H75" s="28">
         <v>375</v>
@@ -2692,7 +2660,7 @@
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
       <c r="G76" s="29" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H76" s="28">
         <v>375</v>
@@ -2711,7 +2679,7 @@
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
       <c r="G77" s="29" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H77" s="28">
         <v>375</v>
@@ -2730,7 +2698,7 @@
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
       <c r="G78" s="29" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H78" s="28">
         <v>24</v>
@@ -2749,7 +2717,7 @@
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
       <c r="G79" s="29" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H79" s="28">
         <v>24</v>
@@ -2770,7 +2738,7 @@
       <c r="A82" s="8"/>
       <c r="B82" s="14"/>
       <c r="G82" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2862,7 +2830,7 @@
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
       <c r="G89" s="29" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H89" s="28">
         <v>763</v>
@@ -2878,7 +2846,7 @@
       <c r="A91" s="8"/>
       <c r="B91" s="14"/>
       <c r="G91" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3010,7 +2978,7 @@
       <c r="E101" s="28"/>
       <c r="F101" s="28"/>
       <c r="G101" s="29" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H101" s="28">
         <v>296</v>
@@ -3028,7 +2996,7 @@
       <c r="E102" s="28"/>
       <c r="F102" s="28"/>
       <c r="G102" s="29" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H102" s="28">
         <v>296</v>
@@ -3046,7 +3014,7 @@
       <c r="E103" s="28"/>
       <c r="F103" s="28"/>
       <c r="G103" s="29" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H103" s="28">
         <v>296</v>
@@ -3066,7 +3034,7 @@
       <c r="E104" s="28"/>
       <c r="F104" s="28"/>
       <c r="G104" s="29" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H104" s="28">
         <v>647</v>
@@ -3081,7 +3049,7 @@
       <c r="A106" s="8"/>
       <c r="B106" s="14"/>
       <c r="G106" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3213,7 +3181,7 @@
       <c r="E116" s="28"/>
       <c r="F116" s="28"/>
       <c r="G116" s="29" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H116" s="28">
         <v>367</v>
@@ -3231,7 +3199,7 @@
       <c r="E117" s="28"/>
       <c r="F117" s="28"/>
       <c r="G117" s="29" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="H117" s="28">
         <v>192</v>
@@ -3249,7 +3217,7 @@
       <c r="E118" s="28"/>
       <c r="F118" s="28"/>
       <c r="G118" s="29" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H118" s="28">
         <v>367</v>
@@ -3267,7 +3235,7 @@
       <c r="E119" s="28"/>
       <c r="F119" s="28"/>
       <c r="G119" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H119" s="28">
         <v>180</v>
@@ -3282,7 +3250,7 @@
       <c r="A121" s="8"/>
       <c r="B121" s="14"/>
       <c r="G121" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3416,7 +3384,7 @@
       <c r="E131" s="28"/>
       <c r="F131" s="28"/>
       <c r="G131" s="29" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H131" s="28">
         <v>41</v>
@@ -3434,7 +3402,7 @@
       <c r="E132" s="28"/>
       <c r="F132" s="28"/>
       <c r="G132" s="29" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H132" s="28">
         <v>16</v>
@@ -3452,7 +3420,7 @@
       <c r="E133" s="28"/>
       <c r="F133" s="28"/>
       <c r="G133" s="29" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="H133" s="28">
         <v>192</v>
@@ -3470,7 +3438,7 @@
       <c r="E134" s="28"/>
       <c r="F134" s="28"/>
       <c r="G134" s="29" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="H134" s="28">
         <v>192</v>
@@ -3488,7 +3456,7 @@
       <c r="E135" s="28"/>
       <c r="F135" s="28"/>
       <c r="G135" s="29" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H135" s="28">
         <v>16</v>
@@ -3506,7 +3474,7 @@
       <c r="E136" s="28"/>
       <c r="F136" s="28"/>
       <c r="G136" s="29" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H136" s="28">
         <v>289</v>
@@ -3524,7 +3492,7 @@
       <c r="E137" s="28"/>
       <c r="F137" s="28"/>
       <c r="G137" s="29" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H137" s="28">
         <v>289</v>
@@ -3542,7 +3510,7 @@
       <c r="E138" s="28"/>
       <c r="F138" s="28"/>
       <c r="G138" s="29" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H138" s="28">
         <v>289</v>
@@ -3557,7 +3525,7 @@
       <c r="A140" s="8"/>
       <c r="B140" s="14"/>
       <c r="G140" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -3687,54 +3655,58 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="8">
+      <c r="A150" s="39">
+        <v>2370</v>
+      </c>
+      <c r="B150" s="28">
+        <v>7972</v>
+      </c>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="H150" s="28">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="8">
         <v>2086</v>
       </c>
-      <c r="B150" s="14">
+      <c r="B151" s="14">
         <v>285</v>
       </c>
-      <c r="G150" s="16" t="s">
+      <c r="G151" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="H150" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="8"/>
-      <c r="B151" s="14"/>
-      <c r="G151" s="16"/>
-    </row>
-    <row r="152" spans="1:8" ht="18">
+      <c r="H151" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="8"/>
       <c r="B152" s="14"/>
-      <c r="G152" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="8">
-        <v>2087</v>
-      </c>
-      <c r="B153" s="14">
-        <v>286</v>
-      </c>
-      <c r="G153" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H153" s="15" t="s">
-        <v>113</v>
+      <c r="G152" s="16"/>
+    </row>
+    <row r="153" spans="1:8" ht="18">
+      <c r="A153" s="8"/>
+      <c r="B153" s="14"/>
+      <c r="G153" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="8">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B154" s="14">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G154" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H154" s="15" t="s">
         <v>113</v>
@@ -3742,13 +3714,13 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="8">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B155" s="14">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H155" s="15" t="s">
         <v>113</v>
@@ -3756,13 +3728,13 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="8">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B156" s="14">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G156" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H156" s="15" t="s">
         <v>113</v>
@@ -3770,13 +3742,13 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="8">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B157" s="14">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H157" s="15" t="s">
         <v>113</v>
@@ -3784,13 +3756,13 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="8">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B158" s="14">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G158" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H158" s="15" t="s">
         <v>113</v>
@@ -3798,13 +3770,13 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="8">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B159" s="14">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H159" s="15" t="s">
         <v>113</v>
@@ -3812,90 +3784,86 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="8">
+        <v>2093</v>
+      </c>
+      <c r="B160" s="14">
+        <v>292</v>
+      </c>
+      <c r="G160" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H160" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="8">
         <v>2094</v>
       </c>
-      <c r="B160" s="14">
+      <c r="B161" s="14">
         <v>293</v>
       </c>
-      <c r="G160" s="16" t="s">
+      <c r="G161" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="H160" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="8"/>
-      <c r="B161" s="14"/>
-      <c r="G161" s="16"/>
+      <c r="H161" s="15" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="27">
-        <v>2269</v>
-      </c>
-      <c r="B162" s="28">
-        <v>2658</v>
-      </c>
-      <c r="C162" s="28"/>
-      <c r="D162" s="28"/>
-      <c r="E162" s="28"/>
-      <c r="F162" s="28"/>
-      <c r="G162" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="H162" s="28">
-        <v>16</v>
-      </c>
+      <c r="A162" s="8"/>
+      <c r="B162" s="14"/>
+      <c r="G162" s="16"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="27">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B163" s="28">
-        <v>5196</v>
+        <v>2658</v>
       </c>
       <c r="C163" s="28"/>
       <c r="D163" s="28"/>
       <c r="E163" s="28"/>
       <c r="F163" s="28"/>
       <c r="G163" s="29" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H163" s="28">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="27">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B164" s="28">
-        <v>7974</v>
+        <v>5196</v>
       </c>
       <c r="C164" s="28"/>
       <c r="D164" s="28"/>
       <c r="E164" s="28"/>
       <c r="F164" s="28"/>
       <c r="G164" s="29" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H164" s="28">
-        <v>192</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="27">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="B165" s="28">
-        <v>7973</v>
+        <v>7974</v>
       </c>
       <c r="C165" s="28"/>
       <c r="D165" s="28"/>
       <c r="E165" s="28"/>
       <c r="F165" s="28"/>
       <c r="G165" s="29" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H165" s="28">
         <v>192</v>
@@ -3903,71 +3871,71 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="27">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B166" s="28">
-        <v>2675</v>
+        <v>7973</v>
       </c>
       <c r="C166" s="28"/>
       <c r="D166" s="28"/>
       <c r="E166" s="28"/>
       <c r="F166" s="28"/>
       <c r="G166" s="29" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="H166" s="28">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="27">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="B167" s="28">
-        <v>5201</v>
+        <v>2675</v>
       </c>
       <c r="C167" s="28"/>
       <c r="D167" s="28"/>
       <c r="E167" s="28"/>
       <c r="F167" s="28"/>
       <c r="G167" s="29" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="H167" s="28">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="27">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="B168" s="28">
-        <v>3918</v>
+        <v>5201</v>
       </c>
       <c r="C168" s="28"/>
       <c r="D168" s="28"/>
       <c r="E168" s="28"/>
       <c r="F168" s="28"/>
       <c r="G168" s="29" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="H168" s="28">
-        <v>205</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="27">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B169" s="28">
-        <v>3917</v>
+        <v>3918</v>
       </c>
       <c r="C169" s="28"/>
       <c r="D169" s="28"/>
       <c r="E169" s="28"/>
       <c r="F169" s="28"/>
       <c r="G169" s="29" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H169" s="28">
         <v>205</v>
@@ -3975,75 +3943,79 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="27">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="B170" s="28">
-        <v>7976</v>
+        <v>3917</v>
       </c>
       <c r="C170" s="28"/>
       <c r="D170" s="28"/>
       <c r="E170" s="28"/>
       <c r="F170" s="28"/>
       <c r="G170" s="29" t="s">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="H170" s="28">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="27">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="B171" s="28">
-        <v>7977</v>
+        <v>7976</v>
       </c>
       <c r="C171" s="28"/>
       <c r="D171" s="28"/>
       <c r="E171" s="28"/>
       <c r="F171" s="28"/>
       <c r="G171" s="29" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H171" s="28">
         <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="8"/>
-      <c r="B172" s="14"/>
-      <c r="G172" s="16"/>
-    </row>
-    <row r="173" spans="1:8" ht="18">
+      <c r="A172" s="27">
+        <v>2278</v>
+      </c>
+      <c r="B172" s="28">
+        <v>7977</v>
+      </c>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="H172" s="28">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="8"/>
       <c r="B173" s="14"/>
-      <c r="G173" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" s="8">
-        <v>2095</v>
-      </c>
-      <c r="B174" s="14">
-        <v>294</v>
-      </c>
-      <c r="G174" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H174" s="15" t="s">
-        <v>113</v>
+      <c r="G173" s="16"/>
+    </row>
+    <row r="174" spans="1:8" ht="18">
+      <c r="A174" s="8"/>
+      <c r="B174" s="14"/>
+      <c r="G174" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="8">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B175" s="14">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G175" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H175" s="15" t="s">
         <v>113</v>
@@ -4051,13 +4023,13 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="8">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B176" s="14">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G176" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H176" s="15" t="s">
         <v>113</v>
@@ -4065,13 +4037,13 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="8">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B177" s="14">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H177" s="15" t="s">
         <v>113</v>
@@ -4079,13 +4051,13 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="8">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B178" s="14">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G178" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H178" s="15" t="s">
         <v>113</v>
@@ -4093,13 +4065,13 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="8">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B179" s="14">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G179" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H179" s="15" t="s">
         <v>113</v>
@@ -4107,98 +4079,98 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="8">
+        <v>2100</v>
+      </c>
+      <c r="B180" s="14">
+        <v>299</v>
+      </c>
+      <c r="G180" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H180" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="8">
         <v>2101</v>
       </c>
-      <c r="B180" s="14">
+      <c r="B181" s="14">
         <v>300</v>
       </c>
-      <c r="G180" s="16" t="s">
+      <c r="G181" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H180" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" s="8"/>
-      <c r="B181" s="14"/>
-      <c r="G181" s="16"/>
+      <c r="H181" s="15" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="27">
-        <v>2279</v>
-      </c>
-      <c r="B182" s="26">
-        <v>3626</v>
-      </c>
-      <c r="C182" s="26">
-        <v>5826</v>
-      </c>
-      <c r="D182" s="26">
-        <v>2229</v>
-      </c>
-      <c r="E182" s="26"/>
-      <c r="F182" s="26"/>
-      <c r="G182" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="H182" s="26">
-        <v>822</v>
-      </c>
+      <c r="A182" s="8"/>
+      <c r="B182" s="14"/>
+      <c r="G182" s="16"/>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="27">
+        <v>2279</v>
+      </c>
+      <c r="B183" s="26">
+        <v>3626</v>
+      </c>
+      <c r="C183" s="26">
+        <v>5826</v>
+      </c>
+      <c r="D183" s="26">
+        <v>2229</v>
+      </c>
+      <c r="E183" s="26"/>
+      <c r="F183" s="26"/>
+      <c r="G183" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="H183" s="26">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="27">
         <v>2280</v>
       </c>
-      <c r="B183" s="28">
+      <c r="B184" s="28">
         <v>6404</v>
       </c>
-      <c r="C183" s="28"/>
-      <c r="D183" s="28"/>
-      <c r="E183" s="28"/>
-      <c r="F183" s="28"/>
-      <c r="G183" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="H183" s="28">
+      <c r="C184" s="28"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="H184" s="28">
         <v>289</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="8"/>
-      <c r="B184" s="14"/>
-      <c r="G184" s="16"/>
-    </row>
-    <row r="185" spans="1:8" ht="18">
+    <row r="185" spans="1:8">
       <c r="A185" s="8"/>
       <c r="B185" s="14"/>
-      <c r="G185" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="8">
-        <v>2102</v>
-      </c>
-      <c r="B186" s="14">
-        <v>301</v>
-      </c>
-      <c r="G186" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H186" s="15" t="s">
-        <v>113</v>
+      <c r="G185" s="16"/>
+    </row>
+    <row r="186" spans="1:8" ht="18">
+      <c r="A186" s="8"/>
+      <c r="B186" s="14"/>
+      <c r="G186" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="8">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B187" s="14">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H187" s="15" t="s">
         <v>113</v>
@@ -4206,13 +4178,13 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="8">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B188" s="14">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G188" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H188" s="15" t="s">
         <v>113</v>
@@ -4220,13 +4192,13 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="8">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B189" s="14">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G189" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H189" s="15" t="s">
         <v>113</v>
@@ -4234,13 +4206,13 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="8">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B190" s="14">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G190" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H190" s="15" t="s">
         <v>113</v>
@@ -4248,13 +4220,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="8">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B191" s="14">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G191" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H191" s="15" t="s">
         <v>113</v>
@@ -4262,199 +4234,194 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="8">
+        <v>2107</v>
+      </c>
+      <c r="B192" s="14">
+        <v>306</v>
+      </c>
+      <c r="G192" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H192" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="8">
         <v>2108</v>
       </c>
-      <c r="B192" s="14">
+      <c r="B193" s="14">
         <v>307</v>
       </c>
-      <c r="G192" s="16" t="s">
+      <c r="G193" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="H192" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
-      <c r="A193" s="8"/>
-      <c r="B193" s="14"/>
-      <c r="G193" s="16"/>
+      <c r="H193" s="15" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="27">
-        <v>2281</v>
-      </c>
-      <c r="B194" s="28">
-        <v>2281</v>
-      </c>
-      <c r="C194" s="28">
-        <v>5251</v>
-      </c>
-      <c r="D194" s="28">
-        <v>2671</v>
-      </c>
-      <c r="E194" s="28"/>
-      <c r="F194" s="28"/>
-      <c r="G194" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="H194" s="28">
-        <v>72</v>
-      </c>
+      <c r="A194" s="8"/>
+      <c r="B194" s="14"/>
+      <c r="G194" s="16"/>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="27">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B195" s="28">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="C195" s="28">
-        <v>5252</v>
-      </c>
-      <c r="D195" s="28"/>
+        <v>5251</v>
+      </c>
+      <c r="D195" s="28">
+        <v>2671</v>
+      </c>
       <c r="E195" s="28"/>
       <c r="F195" s="28"/>
       <c r="G195" s="29" t="s">
-        <v>343</v>
+        <v>233</v>
       </c>
       <c r="H195" s="28">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="27">
+        <v>2282</v>
+      </c>
+      <c r="B196" s="28">
         <v>2283</v>
       </c>
-      <c r="B196" s="28">
-        <v>2689</v>
-      </c>
-      <c r="C196" s="28"/>
+      <c r="C196" s="28">
+        <v>5252</v>
+      </c>
       <c r="D196" s="28"/>
       <c r="E196" s="28"/>
       <c r="F196" s="28"/>
       <c r="G196" s="29" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="H196" s="28">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="27">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B197" s="28">
-        <v>6335</v>
+        <v>2689</v>
       </c>
       <c r="C197" s="28"/>
       <c r="D197" s="28"/>
       <c r="E197" s="28"/>
       <c r="F197" s="28"/>
       <c r="G197" s="29" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="H197" s="28">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="27">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B198" s="28">
-        <v>5217</v>
+        <v>6335</v>
       </c>
       <c r="C198" s="28"/>
       <c r="D198" s="28"/>
       <c r="E198" s="28"/>
       <c r="F198" s="28"/>
       <c r="G198" s="29" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H198" s="28">
-        <v>28</v>
+        <v>135</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="27">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B199" s="28">
-        <v>6336</v>
+        <v>5217</v>
       </c>
       <c r="C199" s="28"/>
       <c r="D199" s="28"/>
       <c r="E199" s="28"/>
       <c r="F199" s="28"/>
       <c r="G199" s="29" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="H199" s="28">
-        <v>135</v>
+        <v>28</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="27">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="B200" s="28">
-        <v>2284</v>
+        <v>6336</v>
       </c>
       <c r="C200" s="28"/>
       <c r="D200" s="28"/>
       <c r="E200" s="28"/>
       <c r="F200" s="28"/>
       <c r="G200" s="29" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="H200" s="28">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="27">
+        <v>2287</v>
+      </c>
+      <c r="B201" s="28">
+        <v>2284</v>
+      </c>
+      <c r="C201" s="28"/>
+      <c r="D201" s="28"/>
+      <c r="E201" s="28"/>
+      <c r="F201" s="28"/>
+      <c r="G201" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="H201" s="28">
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
-      <c r="A201" s="8"/>
-      <c r="B201" s="14"/>
-      <c r="G201" s="16"/>
-    </row>
-    <row r="202" spans="1:9" ht="18">
+    <row r="202" spans="1:9">
       <c r="A202" s="8"/>
       <c r="B202" s="14"/>
-      <c r="G202" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" s="36" customFormat="1">
-      <c r="A203" s="33">
-        <v>2200</v>
-      </c>
-      <c r="B203" s="34">
-        <v>5016</v>
-      </c>
-      <c r="C203" s="34"/>
-      <c r="D203" s="34"/>
-      <c r="E203" s="34"/>
-      <c r="F203" s="34"/>
-      <c r="G203" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H203" s="34">
-        <v>500</v>
-      </c>
-      <c r="I203" s="35"/>
+      <c r="G202" s="16"/>
+    </row>
+    <row r="203" spans="1:9" ht="18">
+      <c r="A203" s="8"/>
+      <c r="B203" s="14"/>
+      <c r="G203" s="9" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="204" spans="1:9" s="36" customFormat="1">
       <c r="A204" s="33">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="B204" s="34">
-        <v>5017</v>
+        <v>5018</v>
       </c>
       <c r="C204" s="34"/>
       <c r="D204" s="34"/>
       <c r="E204" s="34"/>
       <c r="F204" s="34"/>
       <c r="G204" s="11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H204" s="34">
         <v>500</v>
@@ -4463,17 +4430,17 @@
     </row>
     <row r="205" spans="1:9" s="36" customFormat="1">
       <c r="A205" s="33">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="B205" s="34">
-        <v>5018</v>
+        <v>5019</v>
       </c>
       <c r="C205" s="34"/>
       <c r="D205" s="34"/>
       <c r="E205" s="34"/>
       <c r="F205" s="34"/>
       <c r="G205" s="11" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="H205" s="34">
         <v>500</v>
@@ -4482,10 +4449,10 @@
     </row>
     <row r="206" spans="1:9" s="36" customFormat="1">
       <c r="A206" s="33">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="B206" s="34">
-        <v>5019</v>
+        <v>5020</v>
       </c>
       <c r="C206" s="34"/>
       <c r="D206" s="34"/>
@@ -4501,10 +4468,10 @@
     </row>
     <row r="207" spans="1:9" s="36" customFormat="1">
       <c r="A207" s="33">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="B207" s="34">
-        <v>5020</v>
+        <v>5021</v>
       </c>
       <c r="C207" s="34"/>
       <c r="D207" s="34"/>
@@ -4520,10 +4487,10 @@
     </row>
     <row r="208" spans="1:9" s="36" customFormat="1">
       <c r="A208" s="33">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="B208" s="34">
-        <v>5021</v>
+        <v>5022</v>
       </c>
       <c r="C208" s="34"/>
       <c r="D208" s="34"/>
@@ -4539,10 +4506,10 @@
     </row>
     <row r="209" spans="1:9" s="36" customFormat="1">
       <c r="A209" s="33">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="B209" s="34">
-        <v>5022</v>
+        <v>5023</v>
       </c>
       <c r="C209" s="34"/>
       <c r="D209" s="34"/>
@@ -4558,17 +4525,17 @@
     </row>
     <row r="210" spans="1:9" s="36" customFormat="1">
       <c r="A210" s="33">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="B210" s="34">
-        <v>5023</v>
+        <v>5024</v>
       </c>
       <c r="C210" s="34"/>
       <c r="D210" s="34"/>
       <c r="E210" s="34"/>
       <c r="F210" s="34"/>
       <c r="G210" s="11" t="s">
-        <v>119</v>
+        <v>329</v>
       </c>
       <c r="H210" s="34">
         <v>500</v>
@@ -4577,17 +4544,17 @@
     </row>
     <row r="211" spans="1:9" s="36" customFormat="1">
       <c r="A211" s="33">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="B211" s="34">
-        <v>5024</v>
+        <v>5025</v>
       </c>
       <c r="C211" s="34"/>
       <c r="D211" s="34"/>
       <c r="E211" s="34"/>
       <c r="F211" s="34"/>
       <c r="G211" s="11" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="H211" s="34">
         <v>500</v>
@@ -4596,17 +4563,17 @@
     </row>
     <row r="212" spans="1:9" s="36" customFormat="1">
       <c r="A212" s="33">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="B212" s="34">
-        <v>5025</v>
+        <v>5026</v>
       </c>
       <c r="C212" s="34"/>
       <c r="D212" s="34"/>
       <c r="E212" s="34"/>
       <c r="F212" s="34"/>
       <c r="G212" s="11" t="s">
-        <v>345</v>
+        <v>119</v>
       </c>
       <c r="H212" s="34">
         <v>500</v>
@@ -4615,10 +4582,10 @@
     </row>
     <row r="213" spans="1:9" s="36" customFormat="1">
       <c r="A213" s="33">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="B213" s="34">
-        <v>5026</v>
+        <v>5027</v>
       </c>
       <c r="C213" s="34"/>
       <c r="D213" s="34"/>
@@ -4634,10 +4601,10 @@
     </row>
     <row r="214" spans="1:9" s="36" customFormat="1">
       <c r="A214" s="33">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="B214" s="34">
-        <v>5027</v>
+        <v>5028</v>
       </c>
       <c r="C214" s="34"/>
       <c r="D214" s="34"/>
@@ -4653,17 +4620,17 @@
     </row>
     <row r="215" spans="1:9" s="36" customFormat="1">
       <c r="A215" s="33">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="B215" s="34">
-        <v>5028</v>
+        <v>5029</v>
       </c>
       <c r="C215" s="34"/>
       <c r="D215" s="34"/>
       <c r="E215" s="34"/>
       <c r="F215" s="34"/>
       <c r="G215" s="11" t="s">
-        <v>122</v>
+        <v>331</v>
       </c>
       <c r="H215" s="34">
         <v>500</v>
@@ -4672,17 +4639,17 @@
     </row>
     <row r="216" spans="1:9" s="36" customFormat="1">
       <c r="A216" s="33">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="B216" s="34">
-        <v>5029</v>
+        <v>5030</v>
       </c>
       <c r="C216" s="34"/>
       <c r="D216" s="34"/>
       <c r="E216" s="34"/>
       <c r="F216" s="34"/>
       <c r="G216" s="11" t="s">
-        <v>346</v>
+        <v>122</v>
       </c>
       <c r="H216" s="34">
         <v>500</v>
@@ -4691,10 +4658,10 @@
     </row>
     <row r="217" spans="1:9" s="36" customFormat="1">
       <c r="A217" s="33">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="B217" s="34">
-        <v>5030</v>
+        <v>5031</v>
       </c>
       <c r="C217" s="34"/>
       <c r="D217" s="34"/>
@@ -4710,17 +4677,17 @@
     </row>
     <row r="218" spans="1:9" s="36" customFormat="1">
       <c r="A218" s="33">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="B218" s="34">
-        <v>5031</v>
+        <v>5032</v>
       </c>
       <c r="C218" s="34"/>
       <c r="D218" s="34"/>
       <c r="E218" s="34"/>
       <c r="F218" s="34"/>
       <c r="G218" s="11" t="s">
-        <v>124</v>
+        <v>332</v>
       </c>
       <c r="H218" s="34">
         <v>500</v>
@@ -4729,17 +4696,17 @@
     </row>
     <row r="219" spans="1:9" s="36" customFormat="1">
       <c r="A219" s="33">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="B219" s="34">
-        <v>5032</v>
+        <v>5033</v>
       </c>
       <c r="C219" s="34"/>
       <c r="D219" s="34"/>
       <c r="E219" s="34"/>
       <c r="F219" s="34"/>
       <c r="G219" s="11" t="s">
-        <v>347</v>
+        <v>124</v>
       </c>
       <c r="H219" s="34">
         <v>500</v>
@@ -4748,10 +4715,10 @@
     </row>
     <row r="220" spans="1:9" s="36" customFormat="1">
       <c r="A220" s="33">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="B220" s="34">
-        <v>5033</v>
+        <v>5034</v>
       </c>
       <c r="C220" s="34"/>
       <c r="D220" s="34"/>
@@ -4767,10 +4734,10 @@
     </row>
     <row r="221" spans="1:9" s="36" customFormat="1">
       <c r="A221" s="33">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="B221" s="34">
-        <v>5034</v>
+        <v>5035</v>
       </c>
       <c r="C221" s="34"/>
       <c r="D221" s="34"/>
@@ -4786,10 +4753,10 @@
     </row>
     <row r="222" spans="1:9" s="36" customFormat="1">
       <c r="A222" s="33">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="B222" s="34">
-        <v>5035</v>
+        <v>5036</v>
       </c>
       <c r="C222" s="34"/>
       <c r="D222" s="34"/>
@@ -4805,10 +4772,10 @@
     </row>
     <row r="223" spans="1:9" s="36" customFormat="1">
       <c r="A223" s="33">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="B223" s="34">
-        <v>5036</v>
+        <v>5037</v>
       </c>
       <c r="C223" s="34"/>
       <c r="D223" s="34"/>
@@ -4824,17 +4791,17 @@
     </row>
     <row r="224" spans="1:9" s="36" customFormat="1">
       <c r="A224" s="33">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="B224" s="34">
-        <v>5037</v>
+        <v>5038</v>
       </c>
       <c r="C224" s="34"/>
       <c r="D224" s="34"/>
       <c r="E224" s="34"/>
       <c r="F224" s="34"/>
       <c r="G224" s="11" t="s">
-        <v>129</v>
+        <v>333</v>
       </c>
       <c r="H224" s="34">
         <v>500</v>
@@ -4843,17 +4810,17 @@
     </row>
     <row r="225" spans="1:9" s="36" customFormat="1">
       <c r="A225" s="33">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="B225" s="34">
-        <v>5038</v>
+        <v>5039</v>
       </c>
       <c r="C225" s="34"/>
       <c r="D225" s="34"/>
       <c r="E225" s="34"/>
       <c r="F225" s="34"/>
       <c r="G225" s="11" t="s">
-        <v>348</v>
+        <v>129</v>
       </c>
       <c r="H225" s="34">
         <v>500</v>
@@ -4862,10 +4829,10 @@
     </row>
     <row r="226" spans="1:9" s="36" customFormat="1">
       <c r="A226" s="33">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="B226" s="34">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="C226" s="34"/>
       <c r="D226" s="34"/>
@@ -4881,17 +4848,17 @@
     </row>
     <row r="227" spans="1:9" s="36" customFormat="1">
       <c r="A227" s="33">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="B227" s="34">
-        <v>5040</v>
+        <v>5041</v>
       </c>
       <c r="C227" s="34"/>
       <c r="D227" s="34"/>
       <c r="E227" s="34"/>
       <c r="F227" s="34"/>
       <c r="G227" s="11" t="s">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="H227" s="34">
         <v>500</v>
@@ -4900,17 +4867,17 @@
     </row>
     <row r="228" spans="1:9" s="36" customFormat="1">
       <c r="A228" s="33">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="B228" s="34">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="C228" s="34"/>
       <c r="D228" s="34"/>
       <c r="E228" s="34"/>
       <c r="F228" s="34"/>
       <c r="G228" s="11" t="s">
-        <v>349</v>
+        <v>131</v>
       </c>
       <c r="H228" s="34">
         <v>500</v>
@@ -4919,17 +4886,17 @@
     </row>
     <row r="229" spans="1:9" s="36" customFormat="1">
       <c r="A229" s="33">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="B229" s="34">
-        <v>5042</v>
+        <v>5043</v>
       </c>
       <c r="C229" s="34"/>
       <c r="D229" s="34"/>
       <c r="E229" s="34"/>
       <c r="F229" s="34"/>
       <c r="G229" s="11" t="s">
-        <v>132</v>
+        <v>335</v>
       </c>
       <c r="H229" s="34">
         <v>500</v>
@@ -4938,17 +4905,17 @@
     </row>
     <row r="230" spans="1:9" s="36" customFormat="1">
       <c r="A230" s="33">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="B230" s="34">
-        <v>5043</v>
+        <v>5044</v>
       </c>
       <c r="C230" s="34"/>
       <c r="D230" s="34"/>
       <c r="E230" s="34"/>
       <c r="F230" s="34"/>
       <c r="G230" s="11" t="s">
-        <v>350</v>
+        <v>132</v>
       </c>
       <c r="H230" s="34">
         <v>500</v>
@@ -4957,10 +4924,10 @@
     </row>
     <row r="231" spans="1:9" s="36" customFormat="1">
       <c r="A231" s="33">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="B231" s="34">
-        <v>5044</v>
+        <v>5045</v>
       </c>
       <c r="C231" s="34"/>
       <c r="D231" s="34"/>
@@ -4976,10 +4943,10 @@
     </row>
     <row r="232" spans="1:9" s="36" customFormat="1">
       <c r="A232" s="33">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="B232" s="34">
-        <v>5045</v>
+        <v>5046</v>
       </c>
       <c r="C232" s="34"/>
       <c r="D232" s="34"/>
@@ -4995,10 +4962,10 @@
     </row>
     <row r="233" spans="1:9" s="36" customFormat="1">
       <c r="A233" s="33">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="B233" s="34">
-        <v>5046</v>
+        <v>5047</v>
       </c>
       <c r="C233" s="34"/>
       <c r="D233" s="34"/>
@@ -5014,10 +4981,10 @@
     </row>
     <row r="234" spans="1:9" s="36" customFormat="1">
       <c r="A234" s="33">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="B234" s="34">
-        <v>5047</v>
+        <v>5048</v>
       </c>
       <c r="C234" s="34"/>
       <c r="D234" s="34"/>
@@ -5033,10 +5000,10 @@
     </row>
     <row r="235" spans="1:9" s="36" customFormat="1">
       <c r="A235" s="33">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="B235" s="34">
-        <v>5048</v>
+        <v>5049</v>
       </c>
       <c r="C235" s="34"/>
       <c r="D235" s="34"/>
@@ -5052,10 +5019,10 @@
     </row>
     <row r="236" spans="1:9" s="36" customFormat="1">
       <c r="A236" s="33">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="B236" s="34">
-        <v>5049</v>
+        <v>5050</v>
       </c>
       <c r="C236" s="34"/>
       <c r="D236" s="34"/>
@@ -5071,10 +5038,10 @@
     </row>
     <row r="237" spans="1:9" s="36" customFormat="1">
       <c r="A237" s="33">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="B237" s="34">
-        <v>5050</v>
+        <v>5051</v>
       </c>
       <c r="C237" s="34"/>
       <c r="D237" s="34"/>
@@ -5090,10 +5057,10 @@
     </row>
     <row r="238" spans="1:9" s="36" customFormat="1">
       <c r="A238" s="33">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="B238" s="34">
-        <v>5051</v>
+        <v>5052</v>
       </c>
       <c r="C238" s="34"/>
       <c r="D238" s="34"/>
@@ -5107,285 +5074,274 @@
       </c>
       <c r="I238" s="35"/>
     </row>
-    <row r="239" spans="1:9" s="36" customFormat="1">
-      <c r="A239" s="33">
-        <v>2236</v>
-      </c>
-      <c r="B239" s="34">
-        <v>5052</v>
-      </c>
-      <c r="C239" s="34"/>
-      <c r="D239" s="34"/>
-      <c r="E239" s="34"/>
-      <c r="F239" s="34"/>
-      <c r="G239" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="H239" s="34">
-        <v>500</v>
-      </c>
-      <c r="I239" s="35"/>
-    </row>
-    <row r="240" spans="1:9">
-      <c r="A240" s="10"/>
-      <c r="G240" s="16"/>
-    </row>
-    <row r="241" spans="1:8" ht="18">
-      <c r="G241" s="12" t="s">
-        <v>158</v>
+    <row r="239" spans="1:9">
+      <c r="A239" s="10"/>
+      <c r="G239" s="16"/>
+    </row>
+    <row r="240" spans="1:9" ht="18">
+      <c r="G240" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="37">
+        <v>2288</v>
+      </c>
+      <c r="B241" s="26">
+        <v>2152</v>
+      </c>
+      <c r="C241" s="26">
+        <v>2262</v>
+      </c>
+      <c r="D241" s="26">
+        <v>3635</v>
+      </c>
+      <c r="E241" s="26">
+        <v>5204</v>
+      </c>
+      <c r="F241" s="26">
+        <v>6860</v>
+      </c>
+      <c r="G241" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H241" s="26">
+        <v>376</v>
       </c>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="37">
-        <v>2288</v>
+      <c r="A242" s="27">
+        <v>2289</v>
       </c>
       <c r="B242" s="26">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C242" s="26">
-        <v>2262</v>
+        <v>8622</v>
       </c>
       <c r="D242" s="26">
-        <v>3635</v>
-      </c>
-      <c r="E242" s="26">
-        <v>5204</v>
-      </c>
-      <c r="F242" s="26">
-        <v>6860</v>
-      </c>
+        <v>5203</v>
+      </c>
+      <c r="E242" s="26"/>
+      <c r="F242" s="26"/>
       <c r="G242" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H242" s="26">
-        <v>376</v>
+        <v>309</v>
       </c>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="27">
-        <v>2289</v>
+      <c r="A243" s="37">
+        <v>2290</v>
       </c>
       <c r="B243" s="26">
-        <v>2153</v>
+        <v>3634</v>
       </c>
       <c r="C243" s="26">
-        <v>8622</v>
-      </c>
-      <c r="D243" s="26">
-        <v>5203</v>
-      </c>
+        <v>2261</v>
+      </c>
+      <c r="D243" s="26"/>
       <c r="E243" s="26"/>
       <c r="F243" s="26"/>
       <c r="G243" s="32" t="s">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="H243" s="26">
-        <v>309</v>
+        <v>82</v>
       </c>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244" s="37">
-        <v>2290</v>
+      <c r="A244" s="27">
+        <v>2291</v>
       </c>
       <c r="B244" s="26">
-        <v>3634</v>
+        <v>2156</v>
       </c>
       <c r="C244" s="26">
-        <v>2261</v>
+        <v>8626</v>
       </c>
       <c r="D244" s="26"/>
       <c r="E244" s="26"/>
       <c r="F244" s="26"/>
       <c r="G244" s="32" t="s">
-        <v>338</v>
+        <v>161</v>
       </c>
       <c r="H244" s="26">
-        <v>82</v>
+        <v>281</v>
       </c>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="27">
-        <v>2291</v>
+      <c r="A245" s="37">
+        <v>2292</v>
       </c>
       <c r="B245" s="26">
-        <v>2156</v>
+        <v>2264</v>
       </c>
       <c r="C245" s="26">
-        <v>8626</v>
-      </c>
-      <c r="D245" s="26"/>
+        <v>3637</v>
+      </c>
+      <c r="D245" s="26">
+        <v>5206</v>
+      </c>
       <c r="E245" s="26"/>
       <c r="F245" s="26"/>
       <c r="G245" s="32" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="H245" s="26">
-        <v>281</v>
+        <v>110</v>
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="37">
-        <v>2292</v>
+      <c r="A246" s="27">
+        <v>2293</v>
       </c>
       <c r="B246" s="26">
-        <v>2264</v>
-      </c>
-      <c r="C246" s="26">
-        <v>3637</v>
-      </c>
-      <c r="D246" s="26">
-        <v>5206</v>
-      </c>
+        <v>2655</v>
+      </c>
+      <c r="C246" s="26"/>
+      <c r="D246" s="26"/>
       <c r="E246" s="26"/>
       <c r="F246" s="26"/>
       <c r="G246" s="32" t="s">
-        <v>339</v>
+        <v>170</v>
       </c>
       <c r="H246" s="26">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="27">
-        <v>2293</v>
-      </c>
-      <c r="B247" s="26">
-        <v>2655</v>
-      </c>
-      <c r="C247" s="26"/>
-      <c r="D247" s="26"/>
-      <c r="E247" s="26"/>
-      <c r="F247" s="26"/>
-      <c r="G247" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="H247" s="26">
-        <v>16</v>
+        <v>2305</v>
+      </c>
+      <c r="B247" s="28">
+        <v>2159</v>
+      </c>
+      <c r="C247" s="28">
+        <v>3621</v>
+      </c>
+      <c r="D247" s="28">
+        <v>6842</v>
+      </c>
+      <c r="E247" s="28">
+        <v>5244</v>
+      </c>
+      <c r="F247" s="28"/>
+      <c r="G247" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="H247" s="28">
+        <v>358</v>
       </c>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="37">
+      <c r="A248" s="27">
+        <v>2306</v>
+      </c>
+      <c r="B248" s="28">
+        <v>2160</v>
+      </c>
+      <c r="C248" s="28">
+        <v>3620</v>
+      </c>
+      <c r="D248" s="28">
+        <v>5243</v>
+      </c>
+      <c r="E248" s="28"/>
+      <c r="F248" s="28"/>
+      <c r="G248" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="H248" s="28">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="39">
+        <v>2403</v>
+      </c>
+      <c r="B249" s="28">
+        <v>8624</v>
+      </c>
+      <c r="C249" s="28"/>
+      <c r="D249" s="28"/>
+      <c r="E249" s="28"/>
+      <c r="F249" s="28"/>
+      <c r="G249" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="H249" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="39">
+        <v>2404</v>
+      </c>
+      <c r="B250" s="28">
+        <v>8625</v>
+      </c>
+      <c r="C250" s="28"/>
+      <c r="D250" s="28"/>
+      <c r="E250" s="28"/>
+      <c r="F250" s="28"/>
+      <c r="G250" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="H250" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="37">
         <v>2294</v>
       </c>
-      <c r="B248" s="26">
+      <c r="B251" s="26">
         <v>2158</v>
       </c>
-      <c r="C248" s="26">
+      <c r="C251" s="26">
         <v>3639</v>
       </c>
-      <c r="D248" s="26"/>
-      <c r="E248" s="26"/>
-      <c r="F248" s="26"/>
-      <c r="G248" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="H248" s="26">
+      <c r="D251" s="26"/>
+      <c r="E251" s="26"/>
+      <c r="F251" s="26"/>
+      <c r="G251" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="H251" s="26">
         <v>300</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
-      <c r="B249" s="22"/>
-      <c r="C249" s="22"/>
-      <c r="G249" s="21"/>
-    </row>
-    <row r="250" spans="1:8" ht="18">
-      <c r="G250" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" s="27">
-        <v>2295</v>
-      </c>
-      <c r="B251" s="28">
-        <v>2273</v>
-      </c>
-      <c r="C251" s="28">
-        <v>6854</v>
-      </c>
-      <c r="D251" s="28">
-        <v>5189</v>
-      </c>
-      <c r="E251" s="28">
-        <v>5237</v>
-      </c>
-      <c r="F251" s="28"/>
-      <c r="G251" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="H251" s="28">
-        <v>109</v>
-      </c>
-    </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="27">
-        <v>2296</v>
-      </c>
-      <c r="B252" s="28">
-        <v>2274</v>
-      </c>
-      <c r="C252" s="28">
-        <v>6855</v>
-      </c>
-      <c r="D252" s="28">
-        <v>5190</v>
-      </c>
-      <c r="E252" s="28">
-        <v>5238</v>
-      </c>
-      <c r="F252" s="28"/>
-      <c r="G252" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="H252" s="28">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" s="27">
-        <v>2297</v>
-      </c>
-      <c r="B253" s="28">
-        <v>2275</v>
-      </c>
-      <c r="C253" s="28">
-        <v>6856</v>
-      </c>
-      <c r="D253" s="28">
-        <v>5191</v>
-      </c>
-      <c r="E253" s="28">
-        <v>5239</v>
-      </c>
-      <c r="F253" s="28">
-        <v>2674</v>
-      </c>
-      <c r="G253" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="H253" s="28">
-        <v>125</v>
+      <c r="B252" s="22"/>
+      <c r="C252" s="22"/>
+      <c r="G252" s="21"/>
+    </row>
+    <row r="253" spans="1:8" ht="18">
+      <c r="G253" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="27">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="B254" s="28">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="C254" s="28">
-        <v>6858</v>
+        <v>6854</v>
       </c>
       <c r="D254" s="28">
-        <v>5240</v>
+        <v>5189</v>
       </c>
       <c r="E254" s="28">
-        <v>5192</v>
+        <v>5237</v>
       </c>
       <c r="F254" s="28"/>
       <c r="G254" s="29" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H254" s="28">
         <v>109</v>
@@ -5393,23 +5349,23 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="27">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="B255" s="28">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="C255" s="28">
-        <v>6857</v>
+        <v>6855</v>
       </c>
       <c r="D255" s="28">
-        <v>5241</v>
+        <v>5190</v>
       </c>
       <c r="E255" s="28">
-        <v>5193</v>
+        <v>5238</v>
       </c>
       <c r="F255" s="28"/>
       <c r="G255" s="29" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H255" s="28">
         <v>109</v>
@@ -5417,219 +5373,258 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="27">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="B256" s="28">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="C256" s="28">
-        <v>6859</v>
+        <v>6856</v>
       </c>
       <c r="D256" s="28">
-        <v>5242</v>
+        <v>5191</v>
       </c>
       <c r="E256" s="28">
-        <v>5194</v>
-      </c>
-      <c r="F256" s="28"/>
+        <v>5239</v>
+      </c>
+      <c r="F256" s="28">
+        <v>2674</v>
+      </c>
       <c r="G256" s="29" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H256" s="28">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="27">
+        <v>2298</v>
+      </c>
+      <c r="B257" s="28">
+        <v>2276</v>
+      </c>
+      <c r="C257" s="28">
+        <v>6858</v>
+      </c>
+      <c r="D257" s="28">
+        <v>5240</v>
+      </c>
+      <c r="E257" s="28">
+        <v>5192</v>
+      </c>
+      <c r="F257" s="28"/>
+      <c r="G257" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H257" s="28">
         <v>109</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="18">
-      <c r="G258" s="1" t="s">
-        <v>173</v>
+    <row r="258" spans="1:8">
+      <c r="A258" s="27">
+        <v>2299</v>
+      </c>
+      <c r="B258" s="28">
+        <v>2277</v>
+      </c>
+      <c r="C258" s="28">
+        <v>6857</v>
+      </c>
+      <c r="D258" s="28">
+        <v>5241</v>
+      </c>
+      <c r="E258" s="28">
+        <v>5193</v>
+      </c>
+      <c r="F258" s="28"/>
+      <c r="G258" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="H258" s="28">
+        <v>109</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="27">
-        <v>2301</v>
-      </c>
-      <c r="B259" s="26">
-        <v>2279</v>
-      </c>
-      <c r="C259" s="26">
-        <v>5248</v>
-      </c>
-      <c r="D259" s="26">
-        <v>3627</v>
-      </c>
-      <c r="E259" s="26">
-        <v>5208</v>
-      </c>
-      <c r="F259" s="26"/>
-      <c r="G259" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="H259" s="26">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" s="27">
-        <v>2302</v>
-      </c>
-      <c r="B260" s="26">
-        <v>2280</v>
-      </c>
-      <c r="C260" s="26">
-        <v>3628</v>
-      </c>
-      <c r="D260" s="26">
-        <v>6867</v>
-      </c>
-      <c r="E260" s="26">
-        <v>5249</v>
-      </c>
-      <c r="F260" s="26">
-        <v>5209</v>
-      </c>
-      <c r="G260" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="H260" s="26">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="A261" s="27">
-        <v>2303</v>
-      </c>
-      <c r="B261" s="26">
-        <v>3906</v>
-      </c>
-      <c r="C261" s="26"/>
-      <c r="D261" s="26"/>
-      <c r="E261" s="26"/>
-      <c r="F261" s="26"/>
-      <c r="G261" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="H261" s="26">
-        <v>367</v>
+        <v>2300</v>
+      </c>
+      <c r="B259" s="28">
+        <v>2278</v>
+      </c>
+      <c r="C259" s="28">
+        <v>6859</v>
+      </c>
+      <c r="D259" s="28">
+        <v>5242</v>
+      </c>
+      <c r="E259" s="28">
+        <v>5194</v>
+      </c>
+      <c r="F259" s="28"/>
+      <c r="G259" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="H259" s="28">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="18">
+      <c r="G261" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="27">
-        <v>2307</v>
+        <v>2301</v>
       </c>
       <c r="B262" s="26">
-        <v>2676</v>
-      </c>
-      <c r="C262" s="26"/>
-      <c r="D262" s="26"/>
-      <c r="E262" s="26"/>
+        <v>2279</v>
+      </c>
+      <c r="C262" s="26">
+        <v>5248</v>
+      </c>
+      <c r="D262" s="26">
+        <v>3627</v>
+      </c>
+      <c r="E262" s="26">
+        <v>5208</v>
+      </c>
       <c r="F262" s="26"/>
       <c r="G262" s="32" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="H262" s="26">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="27">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="B263" s="26">
-        <v>6395</v>
-      </c>
-      <c r="C263" s="26"/>
-      <c r="D263" s="26"/>
-      <c r="E263" s="26"/>
-      <c r="F263" s="26"/>
+        <v>2280</v>
+      </c>
+      <c r="C263" s="26">
+        <v>3628</v>
+      </c>
+      <c r="D263" s="26">
+        <v>6867</v>
+      </c>
+      <c r="E263" s="26">
+        <v>5249</v>
+      </c>
+      <c r="F263" s="26">
+        <v>5209</v>
+      </c>
       <c r="G263" s="32" t="s">
-        <v>298</v>
+        <v>173</v>
       </c>
       <c r="H263" s="26">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" ht="18">
-      <c r="G265" s="1" t="s">
-        <v>229</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="27">
+        <v>2303</v>
+      </c>
+      <c r="B264" s="26">
+        <v>3906</v>
+      </c>
+      <c r="C264" s="26"/>
+      <c r="D264" s="26"/>
+      <c r="E264" s="26"/>
+      <c r="F264" s="26"/>
+      <c r="G264" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H264" s="26">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="27">
+        <v>2307</v>
+      </c>
+      <c r="B265" s="26">
+        <v>2676</v>
+      </c>
+      <c r="C265" s="26"/>
+      <c r="D265" s="26"/>
+      <c r="E265" s="26"/>
+      <c r="F265" s="26"/>
+      <c r="G265" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="H265" s="26">
+        <v>16</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="27">
-        <v>2305</v>
-      </c>
-      <c r="B266" s="28">
-        <v>2159</v>
-      </c>
-      <c r="C266" s="28">
-        <v>3621</v>
-      </c>
-      <c r="D266" s="28">
-        <v>6842</v>
-      </c>
-      <c r="E266" s="28">
-        <v>5244</v>
-      </c>
-      <c r="F266" s="28"/>
-      <c r="G266" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="H266" s="28">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267" s="27">
-        <v>2306</v>
-      </c>
-      <c r="B267" s="28">
-        <v>2160</v>
-      </c>
-      <c r="C267" s="28">
-        <v>3620</v>
-      </c>
-      <c r="D267" s="28">
-        <v>5243</v>
-      </c>
-      <c r="E267" s="28"/>
-      <c r="F267" s="28"/>
-      <c r="G267" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="H267" s="28">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="27">
-        <v>2307</v>
-      </c>
-      <c r="B268" s="28">
-        <v>2162</v>
-      </c>
-      <c r="C268" s="28">
-        <v>5247</v>
-      </c>
-      <c r="D268" s="28"/>
-      <c r="E268" s="28"/>
-      <c r="F268" s="28"/>
-      <c r="G268" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="H268" s="28">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" ht="18">
-      <c r="G270" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B266" s="26">
+        <v>6395</v>
+      </c>
+      <c r="C266" s="26"/>
+      <c r="D266" s="26"/>
+      <c r="E266" s="26"/>
+      <c r="F266" s="26"/>
+      <c r="G266" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="H266" s="26">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="18">
+      <c r="G268" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="27">
+        <v>2308</v>
+      </c>
+      <c r="B269" s="28">
+        <v>2163</v>
+      </c>
+      <c r="C269" s="28"/>
+      <c r="D269" s="28"/>
+      <c r="E269" s="28"/>
+      <c r="F269" s="28"/>
+      <c r="G269" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="H269" s="28">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="27">
+        <v>2309</v>
+      </c>
+      <c r="B270" s="28">
+        <v>2164</v>
+      </c>
+      <c r="C270" s="28"/>
+      <c r="D270" s="28"/>
+      <c r="E270" s="28"/>
+      <c r="F270" s="28"/>
+      <c r="G270" s="29" t="s">
         <v>177</v>
+      </c>
+      <c r="H270" s="28">
+        <v>241</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="27">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="B271" s="28">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="C271" s="28"/>
       <c r="D271" s="28"/>
@@ -5644,10 +5639,10 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="27">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c r="B272" s="28">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="C272" s="28"/>
       <c r="D272" s="28"/>
@@ -5660,273 +5655,279 @@
         <v>241</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
-      <c r="A273" s="27">
-        <v>2310</v>
-      </c>
-      <c r="B273" s="28">
-        <v>2166</v>
-      </c>
-      <c r="C273" s="28"/>
-      <c r="D273" s="28"/>
-      <c r="E273" s="28"/>
-      <c r="F273" s="28"/>
-      <c r="G273" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="H273" s="28">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10">
-      <c r="A274" s="27">
-        <v>2311</v>
-      </c>
-      <c r="B274" s="28">
-        <v>2168</v>
-      </c>
-      <c r="C274" s="28"/>
-      <c r="D274" s="28"/>
-      <c r="E274" s="28"/>
-      <c r="F274" s="28"/>
-      <c r="G274" s="29" t="s">
+    <row r="274" spans="1:10" ht="15.75" customHeight="1">
+      <c r="G274" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A275" s="27">
+        <v>2312</v>
+      </c>
+      <c r="B275" s="28">
+        <v>6067</v>
+      </c>
+      <c r="C275" s="28"/>
+      <c r="D275" s="28"/>
+      <c r="E275" s="28"/>
+      <c r="F275" s="28"/>
+      <c r="G275" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="H274" s="28">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" ht="15.75" customHeight="1">
-      <c r="G276" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" ht="15.75" customHeight="1">
+      <c r="H275" s="28">
+        <v>337</v>
+      </c>
+      <c r="J275" s="23"/>
+    </row>
+    <row r="276" spans="1:10">
+      <c r="A276" s="27">
+        <v>2313</v>
+      </c>
+      <c r="B276" s="28">
+        <v>6016</v>
+      </c>
+      <c r="C276" s="28">
+        <v>6146</v>
+      </c>
+      <c r="D276" s="28"/>
+      <c r="E276" s="28"/>
+      <c r="F276" s="28"/>
+      <c r="G276" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="H276" s="28">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10">
       <c r="A277" s="27">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="B277" s="28">
-        <v>6067</v>
-      </c>
-      <c r="C277" s="28"/>
+        <v>6017</v>
+      </c>
+      <c r="C277" s="28">
+        <v>6147</v>
+      </c>
       <c r="D277" s="28"/>
       <c r="E277" s="28"/>
       <c r="F277" s="28"/>
       <c r="G277" s="29" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="H277" s="28">
-        <v>337</v>
-      </c>
-      <c r="J277" s="23"/>
-    </row>
-    <row r="278" spans="1:10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" ht="15.75" customHeight="1">
       <c r="A278" s="27">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="B278" s="28">
-        <v>6016</v>
+        <v>2270</v>
       </c>
       <c r="C278" s="28">
-        <v>6146</v>
+        <v>6866</v>
       </c>
       <c r="D278" s="28"/>
       <c r="E278" s="28"/>
       <c r="F278" s="28"/>
       <c r="G278" s="29" t="s">
-        <v>291</v>
+        <v>230</v>
       </c>
       <c r="H278" s="28">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="J278" s="24"/>
+    </row>
+    <row r="279" spans="1:10" ht="15.75" customHeight="1">
       <c r="A279" s="27">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="B279" s="28">
-        <v>6017</v>
+        <v>2271</v>
       </c>
       <c r="C279" s="28">
-        <v>6147</v>
+        <v>6865</v>
       </c>
       <c r="D279" s="28"/>
       <c r="E279" s="28"/>
       <c r="F279" s="28"/>
       <c r="G279" s="29" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="H279" s="28">
-        <v>57</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="J279" s="24"/>
     </row>
     <row r="280" spans="1:10" ht="15.75" customHeight="1">
       <c r="A280" s="27">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="B280" s="28">
-        <v>2270</v>
-      </c>
-      <c r="C280" s="28">
-        <v>6866</v>
-      </c>
+        <v>3642</v>
+      </c>
+      <c r="C280" s="28"/>
       <c r="D280" s="28"/>
       <c r="E280" s="28"/>
       <c r="F280" s="28"/>
       <c r="G280" s="29" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="H280" s="28">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="J280" s="24"/>
     </row>
     <row r="281" spans="1:10" ht="15.75" customHeight="1">
       <c r="A281" s="27">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="B281" s="28">
-        <v>2271</v>
-      </c>
-      <c r="C281" s="28">
-        <v>6865</v>
-      </c>
+        <v>2272</v>
+      </c>
+      <c r="C281" s="28"/>
       <c r="D281" s="28"/>
       <c r="E281" s="28"/>
       <c r="F281" s="28"/>
       <c r="G281" s="29" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H281" s="28">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="J281" s="24"/>
     </row>
     <row r="282" spans="1:10" ht="15.75" customHeight="1">
       <c r="A282" s="27">
-        <v>2317</v>
-      </c>
-      <c r="B282" s="28">
-        <v>3642</v>
+        <v>2320</v>
+      </c>
+      <c r="B282" s="38" t="s">
+        <v>183</v>
       </c>
       <c r="C282" s="28"/>
       <c r="D282" s="28"/>
       <c r="E282" s="28"/>
       <c r="F282" s="28"/>
       <c r="G282" s="29" t="s">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="H282" s="28">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="J282" s="24"/>
     </row>
     <row r="283" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A283" s="27">
-        <v>2318</v>
-      </c>
-      <c r="B283" s="28">
-        <v>2272</v>
-      </c>
-      <c r="C283" s="28"/>
-      <c r="D283" s="28"/>
-      <c r="E283" s="28"/>
-      <c r="F283" s="28"/>
-      <c r="G283" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="H283" s="28">
-        <v>23</v>
-      </c>
+      <c r="B283" s="19"/>
+      <c r="C283" s="17"/>
+      <c r="D283" s="17"/>
+      <c r="E283" s="17"/>
+      <c r="F283" s="17"/>
+      <c r="G283" s="18"/>
       <c r="J283" s="24"/>
     </row>
     <row r="284" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A284" s="27">
-        <v>2319</v>
-      </c>
-      <c r="B284" s="28">
-        <v>6068</v>
-      </c>
-      <c r="C284" s="28"/>
-      <c r="D284" s="28"/>
-      <c r="E284" s="28"/>
-      <c r="F284" s="28"/>
-      <c r="G284" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="H284" s="28">
-        <v>337</v>
+      <c r="B284" s="17"/>
+      <c r="C284" s="17"/>
+      <c r="D284" s="17"/>
+      <c r="E284" s="17"/>
+      <c r="F284" s="17"/>
+      <c r="G284" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="J284" s="24"/>
     </row>
     <row r="285" spans="1:10" ht="15.75" customHeight="1">
       <c r="A285" s="27">
-        <v>2320</v>
-      </c>
-      <c r="B285" s="38" t="s">
-        <v>186</v>
+        <v>2321</v>
+      </c>
+      <c r="B285" s="28">
+        <v>6066</v>
       </c>
       <c r="C285" s="28"/>
       <c r="D285" s="28"/>
       <c r="E285" s="28"/>
       <c r="F285" s="28"/>
       <c r="G285" s="29" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H285" s="28">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="J285" s="24"/>
     </row>
     <row r="286" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B286" s="19"/>
-      <c r="C286" s="17"/>
-      <c r="D286" s="17"/>
-      <c r="E286" s="17"/>
-      <c r="F286" s="17"/>
-      <c r="G286" s="18"/>
+      <c r="A286" s="27">
+        <v>2322</v>
+      </c>
+      <c r="B286" s="28">
+        <v>6070</v>
+      </c>
+      <c r="C286" s="28">
+        <v>5987</v>
+      </c>
+      <c r="D286" s="28"/>
+      <c r="E286" s="28"/>
+      <c r="F286" s="28"/>
+      <c r="G286" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H286" s="26">
+        <v>356</v>
+      </c>
       <c r="J286" s="24"/>
     </row>
     <row r="287" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B287" s="17"/>
-      <c r="C287" s="17"/>
-      <c r="D287" s="17"/>
-      <c r="E287" s="17"/>
-      <c r="F287" s="17"/>
-      <c r="G287" s="1" t="s">
-        <v>223</v>
+      <c r="A287" s="27">
+        <v>2323</v>
+      </c>
+      <c r="B287" s="28">
+        <v>6071</v>
+      </c>
+      <c r="C287" s="28">
+        <v>5989</v>
+      </c>
+      <c r="D287" s="28"/>
+      <c r="E287" s="28"/>
+      <c r="F287" s="28"/>
+      <c r="G287" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H287" s="26">
+        <v>356</v>
       </c>
       <c r="J287" s="24"/>
     </row>
     <row r="288" spans="1:10" ht="15.75" customHeight="1">
       <c r="A288" s="27">
-        <v>2321</v>
+        <v>2324</v>
       </c>
       <c r="B288" s="28">
-        <v>6066</v>
-      </c>
-      <c r="C288" s="28"/>
+        <v>6072</v>
+      </c>
+      <c r="C288" s="28">
+        <v>5990</v>
+      </c>
       <c r="D288" s="28"/>
       <c r="E288" s="28"/>
       <c r="F288" s="28"/>
       <c r="G288" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="H288" s="28">
-        <v>337</v>
+        <v>187</v>
+      </c>
+      <c r="H288" s="26">
+        <v>356</v>
       </c>
       <c r="J288" s="24"/>
     </row>
     <row r="289" spans="1:10" ht="15.75" customHeight="1">
       <c r="A289" s="27">
-        <v>2322</v>
+        <v>2325</v>
       </c>
       <c r="B289" s="28">
-        <v>6070</v>
-      </c>
-      <c r="C289" s="28">
-        <v>5987</v>
-      </c>
+        <v>6073</v>
+      </c>
+      <c r="C289" s="28"/>
       <c r="D289" s="28"/>
       <c r="E289" s="28"/>
       <c r="F289" s="28"/>
@@ -5934,19 +5935,19 @@
         <v>188</v>
       </c>
       <c r="H289" s="26">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="J289" s="24"/>
     </row>
     <row r="290" spans="1:10" ht="15.75" customHeight="1">
       <c r="A290" s="27">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="B290" s="28">
-        <v>6071</v>
+        <v>6074</v>
       </c>
       <c r="C290" s="28">
-        <v>5989</v>
+        <v>5991</v>
       </c>
       <c r="D290" s="28"/>
       <c r="E290" s="28"/>
@@ -5961,13 +5962,13 @@
     </row>
     <row r="291" spans="1:10" ht="15.75" customHeight="1">
       <c r="A291" s="27">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="B291" s="28">
-        <v>6072</v>
+        <v>6075</v>
       </c>
       <c r="C291" s="28">
-        <v>5990</v>
+        <v>5992</v>
       </c>
       <c r="D291" s="28"/>
       <c r="E291" s="28"/>
@@ -5981,60 +5982,40 @@
       <c r="J291" s="24"/>
     </row>
     <row r="292" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A292" s="27">
-        <v>2325</v>
-      </c>
-      <c r="B292" s="28">
-        <v>6073</v>
-      </c>
-      <c r="C292" s="28"/>
-      <c r="D292" s="28"/>
-      <c r="E292" s="28"/>
-      <c r="F292" s="28"/>
-      <c r="G292" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="H292" s="26">
-        <v>337</v>
-      </c>
+      <c r="B292" s="17"/>
+      <c r="C292" s="17"/>
+      <c r="D292" s="17"/>
+      <c r="E292" s="17"/>
+      <c r="F292" s="17"/>
+      <c r="G292" s="18"/>
       <c r="J292" s="24"/>
     </row>
     <row r="293" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A293" s="27">
-        <v>2326</v>
-      </c>
-      <c r="B293" s="28">
-        <v>6074</v>
-      </c>
-      <c r="C293" s="28">
-        <v>5991</v>
-      </c>
-      <c r="D293" s="28"/>
-      <c r="E293" s="28"/>
-      <c r="F293" s="28"/>
-      <c r="G293" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="H293" s="26">
-        <v>356</v>
+      <c r="B293" s="17"/>
+      <c r="C293" s="17"/>
+      <c r="D293" s="17"/>
+      <c r="E293" s="17"/>
+      <c r="F293" s="17"/>
+      <c r="G293" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="J293" s="24"/>
     </row>
     <row r="294" spans="1:10" ht="15.75" customHeight="1">
       <c r="A294" s="27">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="B294" s="28">
-        <v>6075</v>
+        <v>6076</v>
       </c>
       <c r="C294" s="28">
-        <v>5992</v>
+        <v>5993</v>
       </c>
       <c r="D294" s="28"/>
       <c r="E294" s="28"/>
       <c r="F294" s="28"/>
       <c r="G294" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H294" s="26">
         <v>356</v>
@@ -6042,58 +6023,84 @@
       <c r="J294" s="24"/>
     </row>
     <row r="295" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B295" s="17"/>
-      <c r="C295" s="17"/>
-      <c r="D295" s="17"/>
-      <c r="E295" s="17"/>
-      <c r="F295" s="17"/>
-      <c r="G295" s="18"/>
+      <c r="A295" s="27">
+        <v>2329</v>
+      </c>
+      <c r="B295" s="28">
+        <v>6077</v>
+      </c>
+      <c r="C295" s="28">
+        <v>5994</v>
+      </c>
+      <c r="D295" s="28">
+        <v>6137</v>
+      </c>
+      <c r="E295" s="28"/>
+      <c r="F295" s="28"/>
+      <c r="G295" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H295" s="26">
+        <v>394</v>
+      </c>
       <c r="J295" s="24"/>
     </row>
     <row r="296" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B296" s="17"/>
-      <c r="C296" s="17"/>
-      <c r="D296" s="17"/>
-      <c r="E296" s="17"/>
-      <c r="F296" s="17"/>
-      <c r="G296" s="1" t="s">
-        <v>224</v>
+      <c r="A296" s="27">
+        <v>2330</v>
+      </c>
+      <c r="B296" s="28">
+        <v>6078</v>
+      </c>
+      <c r="C296" s="28">
+        <v>5995</v>
+      </c>
+      <c r="D296" s="28"/>
+      <c r="E296" s="28"/>
+      <c r="F296" s="28"/>
+      <c r="G296" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="H296" s="26">
+        <v>356</v>
       </c>
       <c r="J296" s="24"/>
     </row>
     <row r="297" spans="1:10" ht="15.75" customHeight="1">
       <c r="A297" s="27">
-        <v>2328</v>
+        <v>2331</v>
       </c>
       <c r="B297" s="28">
-        <v>6076</v>
+        <v>6079</v>
       </c>
       <c r="C297" s="28">
-        <v>5993</v>
-      </c>
-      <c r="D297" s="28"/>
+        <v>5996</v>
+      </c>
+      <c r="D297" s="28">
+        <v>6139</v>
+      </c>
       <c r="E297" s="28"/>
       <c r="F297" s="28"/>
       <c r="G297" s="29" t="s">
         <v>194</v>
       </c>
       <c r="H297" s="26">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="J297" s="24"/>
     </row>
     <row r="298" spans="1:10" ht="15.75" customHeight="1">
       <c r="A298" s="27">
-        <v>2329</v>
+        <v>2332</v>
       </c>
       <c r="B298" s="28">
-        <v>6077</v>
+        <v>6080</v>
       </c>
       <c r="C298" s="28">
-        <v>5994</v>
+        <v>5997</v>
       </c>
       <c r="D298" s="28">
-        <v>6137</v>
+        <v>6140</v>
       </c>
       <c r="E298" s="28"/>
       <c r="F298" s="28"/>
@@ -6106,147 +6113,137 @@
       <c r="J298" s="24"/>
     </row>
     <row r="299" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A299" s="27">
-        <v>2330</v>
-      </c>
-      <c r="B299" s="28">
-        <v>6078</v>
-      </c>
-      <c r="C299" s="28">
-        <v>5995</v>
-      </c>
-      <c r="D299" s="28"/>
-      <c r="E299" s="28"/>
-      <c r="F299" s="28"/>
-      <c r="G299" s="29" t="s">
+      <c r="B299" s="17"/>
+      <c r="C299" s="17"/>
+      <c r="D299" s="17"/>
+      <c r="E299" s="17"/>
+      <c r="F299" s="17"/>
+      <c r="G299" s="18"/>
+      <c r="J299" s="24"/>
+    </row>
+    <row r="300" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B300" s="17"/>
+      <c r="C300" s="17"/>
+      <c r="D300" s="17"/>
+      <c r="E300" s="17"/>
+      <c r="F300" s="17"/>
+      <c r="G300" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A301" s="39">
+        <v>2333</v>
+      </c>
+      <c r="B301" s="28">
+        <v>2266</v>
+      </c>
+      <c r="C301" s="28">
+        <v>6864</v>
+      </c>
+      <c r="D301" s="28">
+        <v>2660</v>
+      </c>
+      <c r="E301" s="28">
+        <v>3640</v>
+      </c>
+      <c r="F301" s="28">
+        <v>6081</v>
+      </c>
+      <c r="G301" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="H299" s="26">
-        <v>356</v>
-      </c>
-      <c r="J299" s="24"/>
-    </row>
-    <row r="300" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A300" s="27">
-        <v>2331</v>
-      </c>
-      <c r="B300" s="28">
-        <v>6079</v>
-      </c>
-      <c r="C300" s="28">
-        <v>5996</v>
-      </c>
-      <c r="D300" s="28">
-        <v>6139</v>
-      </c>
-      <c r="E300" s="28"/>
-      <c r="F300" s="28"/>
-      <c r="G300" s="29" t="s">
+      <c r="H301" s="28">
+        <v>460</v>
+      </c>
+      <c r="J301" s="24"/>
+    </row>
+    <row r="302" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A302" s="39">
+        <v>2334</v>
+      </c>
+      <c r="B302" s="28">
+        <v>2169</v>
+      </c>
+      <c r="C302" s="28">
+        <v>3641</v>
+      </c>
+      <c r="D302" s="28">
+        <v>2267</v>
+      </c>
+      <c r="E302" s="28"/>
+      <c r="F302" s="28"/>
+      <c r="G302" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="H302" s="28">
+        <v>323</v>
+      </c>
+      <c r="J302" s="24"/>
+    </row>
+    <row r="303" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A303" s="39">
+        <v>2335</v>
+      </c>
+      <c r="B303" s="28">
+        <v>6082</v>
+      </c>
+      <c r="C303" s="28"/>
+      <c r="D303" s="28"/>
+      <c r="E303" s="28"/>
+      <c r="F303" s="28"/>
+      <c r="G303" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="H300" s="26">
-        <v>394</v>
-      </c>
-      <c r="J300" s="24"/>
-    </row>
-    <row r="301" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A301" s="27">
-        <v>2332</v>
-      </c>
-      <c r="B301" s="28">
-        <v>6080</v>
-      </c>
-      <c r="C301" s="28">
-        <v>5997</v>
-      </c>
-      <c r="D301" s="28">
-        <v>6140</v>
-      </c>
-      <c r="E301" s="28"/>
-      <c r="F301" s="28"/>
-      <c r="G301" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="H301" s="26">
-        <v>394</v>
-      </c>
-      <c r="J301" s="24"/>
-    </row>
-    <row r="302" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B302" s="17"/>
-      <c r="C302" s="17"/>
-      <c r="D302" s="17"/>
-      <c r="E302" s="17"/>
-      <c r="F302" s="17"/>
-      <c r="G302" s="18"/>
-      <c r="J302" s="24"/>
-    </row>
-    <row r="303" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B303" s="17"/>
-      <c r="C303" s="17"/>
-      <c r="D303" s="17"/>
-      <c r="E303" s="17"/>
-      <c r="F303" s="17"/>
-      <c r="G303" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="H303" s="28">
+        <v>337</v>
+      </c>
+      <c r="J303" s="24"/>
     </row>
     <row r="304" spans="1:10" ht="15.75" customHeight="1">
       <c r="A304" s="39">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="B304" s="28">
-        <v>2266</v>
-      </c>
-      <c r="C304" s="28">
-        <v>6864</v>
-      </c>
-      <c r="D304" s="28">
-        <v>2660</v>
-      </c>
-      <c r="E304" s="28">
-        <v>3640</v>
-      </c>
-      <c r="F304" s="28">
-        <v>6081</v>
-      </c>
+        <v>6083</v>
+      </c>
+      <c r="C304" s="28"/>
+      <c r="D304" s="28"/>
+      <c r="E304" s="28"/>
+      <c r="F304" s="28"/>
       <c r="G304" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H304" s="28">
-        <v>460</v>
+        <v>337</v>
       </c>
       <c r="J304" s="24"/>
     </row>
     <row r="305" spans="1:10" ht="15.75" customHeight="1">
       <c r="A305" s="39">
-        <v>2334</v>
+        <v>2337</v>
       </c>
       <c r="B305" s="28">
-        <v>2169</v>
-      </c>
-      <c r="C305" s="28">
-        <v>3641</v>
-      </c>
-      <c r="D305" s="28">
-        <v>2267</v>
-      </c>
+        <v>6084</v>
+      </c>
+      <c r="C305" s="28"/>
+      <c r="D305" s="28"/>
       <c r="E305" s="28"/>
       <c r="F305" s="28"/>
       <c r="G305" s="29" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="H305" s="28">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="J305" s="24"/>
     </row>
     <row r="306" spans="1:10" ht="15.75" customHeight="1">
       <c r="A306" s="39">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="B306" s="28">
-        <v>6082</v>
+        <v>6085</v>
       </c>
       <c r="C306" s="28"/>
       <c r="D306" s="28"/>
@@ -6262,10 +6259,10 @@
     </row>
     <row r="307" spans="1:10" ht="15.75" customHeight="1">
       <c r="A307" s="39">
-        <v>2336</v>
+        <v>2339</v>
       </c>
       <c r="B307" s="28">
-        <v>6083</v>
+        <v>6086</v>
       </c>
       <c r="C307" s="28"/>
       <c r="D307" s="28"/>
@@ -6280,228 +6277,234 @@
       <c r="J307" s="24"/>
     </row>
     <row r="308" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A308" s="39">
-        <v>2337</v>
-      </c>
-      <c r="B308" s="28">
-        <v>6084</v>
-      </c>
-      <c r="C308" s="28"/>
-      <c r="D308" s="28"/>
-      <c r="E308" s="28"/>
-      <c r="F308" s="28"/>
-      <c r="G308" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="H308" s="28">
-        <v>337</v>
-      </c>
+      <c r="B308" s="17"/>
+      <c r="C308" s="17"/>
+      <c r="D308" s="17"/>
+      <c r="E308" s="17"/>
+      <c r="F308" s="17"/>
+      <c r="G308" s="18"/>
       <c r="J308" s="24"/>
     </row>
     <row r="309" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A309" s="39">
-        <v>2338</v>
-      </c>
-      <c r="B309" s="28">
-        <v>6085</v>
-      </c>
-      <c r="C309" s="28"/>
-      <c r="D309" s="28"/>
-      <c r="E309" s="28"/>
-      <c r="F309" s="28"/>
-      <c r="G309" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="H309" s="28">
-        <v>337</v>
+      <c r="B309" s="17"/>
+      <c r="C309" s="17"/>
+      <c r="D309" s="17"/>
+      <c r="E309" s="17"/>
+      <c r="F309" s="17"/>
+      <c r="G309" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="J309" s="24"/>
     </row>
     <row r="310" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A310" s="39">
-        <v>2339</v>
+      <c r="A310" s="27">
+        <v>2340</v>
       </c>
       <c r="B310" s="28">
-        <v>6086</v>
-      </c>
-      <c r="C310" s="28"/>
+        <v>6089</v>
+      </c>
+      <c r="C310" s="28">
+        <v>6010</v>
+      </c>
       <c r="D310" s="28"/>
       <c r="E310" s="28"/>
       <c r="F310" s="28"/>
       <c r="G310" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="H310" s="26">
+        <v>356</v>
+      </c>
+      <c r="J310" s="24"/>
+    </row>
+    <row r="311" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A311" s="27">
+        <v>2341</v>
+      </c>
+      <c r="B311" s="28">
+        <v>6090</v>
+      </c>
+      <c r="C311" s="28">
+        <v>6011</v>
+      </c>
+      <c r="D311" s="28"/>
+      <c r="E311" s="28"/>
+      <c r="F311" s="28"/>
+      <c r="G311" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="H311" s="26">
+        <v>356</v>
+      </c>
+      <c r="J311" s="24"/>
+    </row>
+    <row r="312" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A312" s="27">
+        <v>2342</v>
+      </c>
+      <c r="B312" s="28">
+        <v>6091</v>
+      </c>
+      <c r="C312" s="28">
+        <v>6012</v>
+      </c>
+      <c r="D312" s="28">
+        <v>6143</v>
+      </c>
+      <c r="E312" s="28"/>
+      <c r="F312" s="28"/>
+      <c r="G312" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="H310" s="28">
-        <v>337</v>
-      </c>
-      <c r="J310" s="24"/>
-    </row>
-    <row r="311" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B311" s="17"/>
-      <c r="C311" s="17"/>
-      <c r="D311" s="17"/>
-      <c r="E311" s="17"/>
-      <c r="F311" s="17"/>
-      <c r="G311" s="18"/>
-      <c r="J311" s="24"/>
-    </row>
-    <row r="312" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B312" s="17"/>
-      <c r="C312" s="17"/>
-      <c r="D312" s="17"/>
-      <c r="E312" s="17"/>
-      <c r="F312" s="17"/>
-      <c r="G312" s="1" t="s">
-        <v>226</v>
+      <c r="H312" s="26">
+        <v>394</v>
       </c>
       <c r="J312" s="24"/>
     </row>
     <row r="313" spans="1:10" ht="15.75" customHeight="1">
       <c r="A313" s="27">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="B313" s="28">
-        <v>6089</v>
+        <v>6092</v>
       </c>
       <c r="C313" s="28">
-        <v>6010</v>
-      </c>
-      <c r="D313" s="28"/>
+        <v>6013</v>
+      </c>
+      <c r="D313" s="28">
+        <v>6144</v>
+      </c>
       <c r="E313" s="28"/>
       <c r="F313" s="28"/>
       <c r="G313" s="29" t="s">
         <v>205</v>
       </c>
       <c r="H313" s="26">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="J313" s="24"/>
     </row>
     <row r="314" spans="1:10" ht="15.75" customHeight="1">
       <c r="A314" s="27">
-        <v>2341</v>
+        <v>2344</v>
       </c>
       <c r="B314" s="28">
-        <v>6090</v>
+        <v>6093</v>
       </c>
       <c r="C314" s="28">
-        <v>6011</v>
-      </c>
-      <c r="D314" s="28"/>
+        <v>6015</v>
+      </c>
+      <c r="D314" s="28">
+        <v>6145</v>
+      </c>
       <c r="E314" s="28"/>
       <c r="F314" s="28"/>
       <c r="G314" s="29" t="s">
         <v>206</v>
       </c>
       <c r="H314" s="26">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="J314" s="24"/>
     </row>
     <row r="315" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A315" s="27">
-        <v>2342</v>
-      </c>
-      <c r="B315" s="28">
-        <v>6091</v>
-      </c>
-      <c r="C315" s="28">
-        <v>6012</v>
-      </c>
-      <c r="D315" s="28">
-        <v>6143</v>
-      </c>
-      <c r="E315" s="28"/>
-      <c r="F315" s="28"/>
-      <c r="G315" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="H315" s="26">
-        <v>394</v>
-      </c>
+      <c r="B315" s="17"/>
+      <c r="C315" s="17"/>
+      <c r="D315" s="17"/>
+      <c r="E315" s="17"/>
+      <c r="F315" s="17"/>
+      <c r="G315" s="18"/>
       <c r="J315" s="24"/>
     </row>
     <row r="316" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A316" s="27">
-        <v>2343</v>
-      </c>
-      <c r="B316" s="28">
-        <v>6092</v>
-      </c>
-      <c r="C316" s="28">
-        <v>6013</v>
-      </c>
-      <c r="D316" s="28">
-        <v>6144</v>
-      </c>
-      <c r="E316" s="28"/>
-      <c r="F316" s="28"/>
-      <c r="G316" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="H316" s="26">
-        <v>394</v>
+      <c r="B316" s="17"/>
+      <c r="C316" s="17"/>
+      <c r="D316" s="17"/>
+      <c r="E316" s="17"/>
+      <c r="F316" s="17"/>
+      <c r="G316" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="J316" s="24"/>
     </row>
     <row r="317" spans="1:10" ht="15.75" customHeight="1">
       <c r="A317" s="27">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="B317" s="28">
-        <v>6093</v>
+        <v>6094</v>
       </c>
       <c r="C317" s="28">
-        <v>6015</v>
-      </c>
-      <c r="D317" s="28">
-        <v>6145</v>
-      </c>
+        <v>6024</v>
+      </c>
+      <c r="D317" s="28"/>
       <c r="E317" s="28"/>
       <c r="F317" s="28"/>
       <c r="G317" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H317" s="26">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="J317" s="24"/>
     </row>
     <row r="318" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B318" s="17"/>
-      <c r="C318" s="17"/>
-      <c r="D318" s="17"/>
-      <c r="E318" s="17"/>
-      <c r="F318" s="17"/>
-      <c r="G318" s="18"/>
+      <c r="A318" s="27">
+        <v>2346</v>
+      </c>
+      <c r="B318" s="28">
+        <v>6095</v>
+      </c>
+      <c r="C318" s="28">
+        <v>6025</v>
+      </c>
+      <c r="D318" s="28"/>
+      <c r="E318" s="28"/>
+      <c r="F318" s="28"/>
+      <c r="G318" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="H318" s="26">
+        <v>356</v>
+      </c>
       <c r="J318" s="24"/>
     </row>
     <row r="319" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B319" s="17"/>
-      <c r="C319" s="17"/>
-      <c r="D319" s="17"/>
-      <c r="E319" s="17"/>
-      <c r="F319" s="17"/>
-      <c r="G319" s="1" t="s">
-        <v>227</v>
+      <c r="A319" s="27">
+        <v>2347</v>
+      </c>
+      <c r="B319" s="28">
+        <v>6096</v>
+      </c>
+      <c r="C319" s="28">
+        <v>6026</v>
+      </c>
+      <c r="D319" s="28"/>
+      <c r="E319" s="28"/>
+      <c r="F319" s="28"/>
+      <c r="G319" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="H319" s="26">
+        <v>356</v>
       </c>
       <c r="J319" s="24"/>
     </row>
     <row r="320" spans="1:10" ht="15.75" customHeight="1">
       <c r="A320" s="27">
-        <v>2345</v>
+        <v>2348</v>
       </c>
       <c r="B320" s="28">
-        <v>6094</v>
+        <v>6097</v>
       </c>
       <c r="C320" s="28">
-        <v>6024</v>
+        <v>6027</v>
       </c>
       <c r="D320" s="28"/>
       <c r="E320" s="28"/>
       <c r="F320" s="28"/>
       <c r="G320" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H320" s="26">
         <v>356</v>
@@ -6510,19 +6513,19 @@
     </row>
     <row r="321" spans="1:10" ht="15.75" customHeight="1">
       <c r="A321" s="27">
-        <v>2346</v>
+        <v>2349</v>
       </c>
       <c r="B321" s="28">
-        <v>6095</v>
+        <v>6098</v>
       </c>
       <c r="C321" s="28">
-        <v>6025</v>
+        <v>6028</v>
       </c>
       <c r="D321" s="28"/>
       <c r="E321" s="28"/>
       <c r="F321" s="28"/>
       <c r="G321" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H321" s="26">
         <v>356</v>
@@ -6531,19 +6534,19 @@
     </row>
     <row r="322" spans="1:10" ht="15.75" customHeight="1">
       <c r="A322" s="27">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="B322" s="28">
-        <v>6096</v>
+        <v>6099</v>
       </c>
       <c r="C322" s="28">
-        <v>6026</v>
+        <v>6029</v>
       </c>
       <c r="D322" s="28"/>
       <c r="E322" s="28"/>
       <c r="F322" s="28"/>
       <c r="G322" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H322" s="26">
         <v>356</v>
@@ -6551,62 +6554,40 @@
       <c r="J322" s="24"/>
     </row>
     <row r="323" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A323" s="27">
-        <v>2348</v>
-      </c>
-      <c r="B323" s="28">
-        <v>6097</v>
-      </c>
-      <c r="C323" s="28">
-        <v>6027</v>
-      </c>
-      <c r="D323" s="28"/>
-      <c r="E323" s="28"/>
-      <c r="F323" s="28"/>
-      <c r="G323" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="H323" s="26">
-        <v>356</v>
-      </c>
+      <c r="B323" s="17"/>
+      <c r="C323" s="17"/>
+      <c r="D323" s="17"/>
+      <c r="E323" s="17"/>
+      <c r="F323" s="17"/>
+      <c r="G323" s="18"/>
       <c r="J323" s="24"/>
     </row>
     <row r="324" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A324" s="27">
-        <v>2349</v>
-      </c>
-      <c r="B324" s="28">
-        <v>6098</v>
-      </c>
-      <c r="C324" s="28">
-        <v>6028</v>
-      </c>
-      <c r="D324" s="28"/>
-      <c r="E324" s="28"/>
-      <c r="F324" s="28"/>
-      <c r="G324" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="H324" s="26">
-        <v>356</v>
+      <c r="B324" s="17"/>
+      <c r="C324" s="17"/>
+      <c r="D324" s="17"/>
+      <c r="E324" s="17"/>
+      <c r="F324" s="17"/>
+      <c r="G324" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="J324" s="24"/>
     </row>
     <row r="325" spans="1:10" ht="15.75" customHeight="1">
       <c r="A325" s="27">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="B325" s="28">
-        <v>6099</v>
+        <v>6101</v>
       </c>
       <c r="C325" s="28">
-        <v>6029</v>
+        <v>6030</v>
       </c>
       <c r="D325" s="28"/>
       <c r="E325" s="28"/>
       <c r="F325" s="28"/>
       <c r="G325" s="29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H325" s="26">
         <v>356</v>
@@ -6614,40 +6595,62 @@
       <c r="J325" s="24"/>
     </row>
     <row r="326" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B326" s="17"/>
-      <c r="C326" s="17"/>
-      <c r="D326" s="17"/>
-      <c r="E326" s="17"/>
-      <c r="F326" s="17"/>
-      <c r="G326" s="18"/>
+      <c r="A326" s="27">
+        <v>2352</v>
+      </c>
+      <c r="B326" s="28">
+        <v>6102</v>
+      </c>
+      <c r="C326" s="28">
+        <v>6031</v>
+      </c>
+      <c r="D326" s="28"/>
+      <c r="E326" s="28"/>
+      <c r="F326" s="28"/>
+      <c r="G326" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="H326" s="26">
+        <v>356</v>
+      </c>
       <c r="J326" s="24"/>
     </row>
     <row r="327" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B327" s="17"/>
-      <c r="C327" s="17"/>
-      <c r="D327" s="17"/>
-      <c r="E327" s="17"/>
-      <c r="F327" s="17"/>
-      <c r="G327" s="1" t="s">
-        <v>228</v>
+      <c r="A327" s="27">
+        <v>2353</v>
+      </c>
+      <c r="B327" s="28">
+        <v>6103</v>
+      </c>
+      <c r="C327" s="28">
+        <v>6032</v>
+      </c>
+      <c r="D327" s="28"/>
+      <c r="E327" s="28"/>
+      <c r="F327" s="28"/>
+      <c r="G327" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="H327" s="26">
+        <v>356</v>
       </c>
       <c r="J327" s="24"/>
     </row>
     <row r="328" spans="1:10" ht="15.75" customHeight="1">
       <c r="A328" s="27">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="B328" s="28">
-        <v>6101</v>
+        <v>6104</v>
       </c>
       <c r="C328" s="28">
-        <v>6030</v>
+        <v>6033</v>
       </c>
       <c r="D328" s="28"/>
       <c r="E328" s="28"/>
       <c r="F328" s="28"/>
       <c r="G328" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H328" s="26">
         <v>356</v>
@@ -6656,19 +6659,19 @@
     </row>
     <row r="329" spans="1:10" ht="15.75" customHeight="1">
       <c r="A329" s="27">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="B329" s="28">
-        <v>6102</v>
+        <v>6105</v>
       </c>
       <c r="C329" s="28">
-        <v>6031</v>
+        <v>6034</v>
       </c>
       <c r="D329" s="28"/>
       <c r="E329" s="28"/>
       <c r="F329" s="28"/>
       <c r="G329" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H329" s="26">
         <v>356</v>
@@ -6677,19 +6680,19 @@
     </row>
     <row r="330" spans="1:10" ht="15.75" customHeight="1">
       <c r="A330" s="27">
-        <v>2353</v>
+        <v>2356</v>
       </c>
       <c r="B330" s="28">
-        <v>6103</v>
+        <v>6106</v>
       </c>
       <c r="C330" s="28">
-        <v>6032</v>
+        <v>6035</v>
       </c>
       <c r="D330" s="28"/>
       <c r="E330" s="28"/>
       <c r="F330" s="28"/>
       <c r="G330" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H330" s="26">
         <v>356</v>
@@ -6697,178 +6700,178 @@
       <c r="J330" s="24"/>
     </row>
     <row r="331" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A331" s="27">
-        <v>2354</v>
-      </c>
-      <c r="B331" s="28">
-        <v>6104</v>
-      </c>
-      <c r="C331" s="28">
-        <v>6033</v>
-      </c>
-      <c r="D331" s="28"/>
-      <c r="E331" s="28"/>
-      <c r="F331" s="28"/>
-      <c r="G331" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="H331" s="26">
-        <v>356</v>
-      </c>
+      <c r="B331" s="17"/>
+      <c r="C331" s="17"/>
+      <c r="D331" s="17"/>
+      <c r="E331" s="17"/>
+      <c r="F331" s="17"/>
+      <c r="G331" s="18"/>
       <c r="J331" s="24"/>
     </row>
     <row r="332" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A332" s="27">
-        <v>2355</v>
-      </c>
-      <c r="B332" s="28">
-        <v>6105</v>
-      </c>
-      <c r="C332" s="28">
-        <v>6034</v>
-      </c>
-      <c r="D332" s="28"/>
-      <c r="E332" s="28"/>
-      <c r="F332" s="28"/>
-      <c r="G332" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="H332" s="26">
-        <v>356</v>
-      </c>
-      <c r="J332" s="24"/>
-    </row>
-    <row r="333" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A333" s="27">
-        <v>2356</v>
+      <c r="B332" s="22"/>
+      <c r="C332" s="22"/>
+      <c r="D332" s="22"/>
+      <c r="G332" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10">
+      <c r="A333" s="39">
+        <v>2358</v>
       </c>
       <c r="B333" s="28">
-        <v>6106</v>
+        <v>5148</v>
       </c>
       <c r="C333" s="28">
-        <v>6035</v>
+        <v>2263</v>
       </c>
       <c r="D333" s="28"/>
       <c r="E333" s="28"/>
       <c r="F333" s="28"/>
       <c r="G333" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="H333" s="26">
-        <v>356</v>
-      </c>
-      <c r="J333" s="24"/>
-    </row>
-    <row r="334" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B334" s="17"/>
-      <c r="C334" s="17"/>
-      <c r="D334" s="17"/>
-      <c r="E334" s="17"/>
-      <c r="F334" s="17"/>
-      <c r="G334" s="18"/>
-      <c r="J334" s="24"/>
-    </row>
-    <row r="335" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B335" s="22"/>
-      <c r="C335" s="22"/>
-      <c r="D335" s="22"/>
-      <c r="G335" s="1" t="s">
-        <v>158</v>
+        <v>276</v>
+      </c>
+      <c r="H333" s="28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10">
+      <c r="A334" s="39">
+        <v>2359</v>
+      </c>
+      <c r="B334" s="28">
+        <v>5164</v>
+      </c>
+      <c r="C334" s="28"/>
+      <c r="D334" s="28"/>
+      <c r="E334" s="28"/>
+      <c r="F334" s="28"/>
+      <c r="G334" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="H334" s="28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10">
+      <c r="A335" s="39">
+        <v>2357</v>
+      </c>
+      <c r="B335" s="28">
+        <v>2265</v>
+      </c>
+      <c r="C335" s="28"/>
+      <c r="D335" s="28"/>
+      <c r="E335" s="28"/>
+      <c r="F335" s="28"/>
+      <c r="G335" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="H335" s="28">
+        <v>649</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A336" s="39">
-        <v>2357</v>
-      </c>
-      <c r="B336" s="28">
-        <v>2265</v>
-      </c>
-      <c r="C336" s="28"/>
-      <c r="D336" s="28"/>
-      <c r="E336" s="28"/>
-      <c r="F336" s="28"/>
-      <c r="G336" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="H336" s="28">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
-      <c r="A337" s="39">
-        <v>2358</v>
-      </c>
-      <c r="B337" s="28">
-        <v>5148</v>
-      </c>
-      <c r="C337" s="28">
-        <v>2263</v>
-      </c>
-      <c r="D337" s="28"/>
-      <c r="E337" s="28"/>
-      <c r="F337" s="28"/>
-      <c r="G337" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="H337" s="28">
-        <v>60</v>
+      <c r="B336" s="2"/>
+      <c r="C336" s="2"/>
+      <c r="D336" s="2"/>
+      <c r="E336" s="2"/>
+      <c r="F336" s="2"/>
+      <c r="H336" s="2"/>
+    </row>
+    <row r="337" spans="1:8" ht="15.75" customHeight="1">
+      <c r="G337" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="39">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="B338" s="28">
-        <v>5164</v>
+        <v>4158</v>
       </c>
       <c r="C338" s="28"/>
       <c r="D338" s="28"/>
       <c r="E338" s="28"/>
       <c r="F338" s="28"/>
       <c r="G338" s="29" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="H338" s="28">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="340" spans="1:8" ht="15.75" customHeight="1">
-      <c r="G340" s="1" t="s">
-        <v>318</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" s="39">
+        <v>2361</v>
+      </c>
+      <c r="B339" s="28">
+        <v>4159</v>
+      </c>
+      <c r="C339" s="28"/>
+      <c r="D339" s="28"/>
+      <c r="E339" s="28"/>
+      <c r="F339" s="28"/>
+      <c r="G339" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="H339" s="28">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" s="39">
+        <v>2362</v>
+      </c>
+      <c r="B340" s="28">
+        <v>4163</v>
+      </c>
+      <c r="C340" s="28"/>
+      <c r="D340" s="28"/>
+      <c r="E340" s="28"/>
+      <c r="F340" s="28"/>
+      <c r="G340" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="H340" s="28">
+        <v>375</v>
       </c>
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="39">
-        <v>2360</v>
+        <v>2363</v>
       </c>
       <c r="B341" s="28">
-        <v>4158</v>
-      </c>
-      <c r="C341" s="28"/>
+        <v>2688</v>
+      </c>
+      <c r="C341" s="28">
+        <v>5830</v>
+      </c>
       <c r="D341" s="28"/>
       <c r="E341" s="28"/>
       <c r="F341" s="28"/>
       <c r="G341" s="29" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="H341" s="28">
-        <v>375</v>
+        <v>483</v>
       </c>
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="39">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="B342" s="28">
-        <v>4159</v>
+        <v>4164</v>
       </c>
       <c r="C342" s="28"/>
       <c r="D342" s="28"/>
       <c r="E342" s="28"/>
       <c r="F342" s="28"/>
       <c r="G342" s="29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H342" s="28">
         <v>375</v>
@@ -6876,549 +6879,547 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="39">
-        <v>2362</v>
+        <v>2365</v>
       </c>
       <c r="B343" s="28">
-        <v>4163</v>
+        <v>2230</v>
       </c>
       <c r="C343" s="28"/>
       <c r="D343" s="28"/>
       <c r="E343" s="28"/>
       <c r="F343" s="28"/>
       <c r="G343" s="29" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="H343" s="28">
-        <v>375</v>
+        <v>296</v>
       </c>
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="39">
-        <v>2363</v>
+        <v>2366</v>
       </c>
       <c r="B344" s="28">
-        <v>2688</v>
-      </c>
-      <c r="C344" s="28">
-        <v>5830</v>
-      </c>
+        <v>4153</v>
+      </c>
+      <c r="C344" s="28"/>
       <c r="D344" s="28"/>
       <c r="E344" s="28"/>
       <c r="F344" s="28"/>
       <c r="G344" s="29" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="H344" s="28">
-        <v>483</v>
+        <v>375</v>
       </c>
     </row>
     <row r="345" spans="1:8">
-      <c r="A345" s="39">
-        <v>2364</v>
-      </c>
-      <c r="B345" s="28">
-        <v>4164</v>
-      </c>
-      <c r="C345" s="28"/>
-      <c r="D345" s="28"/>
-      <c r="E345" s="28"/>
-      <c r="F345" s="28"/>
-      <c r="G345" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="H345" s="28">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
-      <c r="A346" s="39">
-        <v>2365</v>
-      </c>
-      <c r="B346" s="28">
-        <v>2230</v>
-      </c>
-      <c r="C346" s="28"/>
-      <c r="D346" s="28"/>
-      <c r="E346" s="28"/>
-      <c r="F346" s="28"/>
-      <c r="G346" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="H346" s="28">
-        <v>296</v>
-      </c>
+      <c r="B345" s="22"/>
+      <c r="G345" s="21"/>
+      <c r="H345" s="22"/>
+    </row>
+    <row r="346" spans="1:8" ht="18">
+      <c r="B346" s="22"/>
+      <c r="G346" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H346" s="22"/>
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="39">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="B347" s="28">
-        <v>4153</v>
-      </c>
-      <c r="C347" s="28"/>
-      <c r="D347" s="28"/>
+        <v>3266</v>
+      </c>
+      <c r="C347" s="28">
+        <v>5703</v>
+      </c>
+      <c r="D347" s="28">
+        <v>3923</v>
+      </c>
       <c r="E347" s="28"/>
       <c r="F347" s="28"/>
       <c r="G347" s="29" t="s">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="H347" s="28">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="348" spans="1:8">
-      <c r="B348" s="22"/>
-      <c r="G348" s="21"/>
-      <c r="H348" s="22"/>
-    </row>
-    <row r="349" spans="1:8" ht="18">
-      <c r="B349" s="22"/>
-      <c r="G349" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H349" s="22"/>
+      <c r="A348" s="39">
+        <v>2368</v>
+      </c>
+      <c r="B348" s="28">
+        <v>3619</v>
+      </c>
+      <c r="C348" s="28"/>
+      <c r="D348" s="28"/>
+      <c r="E348" s="28"/>
+      <c r="F348" s="28"/>
+      <c r="G348" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H348" s="28">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349" s="39">
+        <v>2369</v>
+      </c>
+      <c r="B349" s="28">
+        <v>3893</v>
+      </c>
+      <c r="C349" s="28"/>
+      <c r="D349" s="28"/>
+      <c r="E349" s="28"/>
+      <c r="F349" s="28"/>
+      <c r="G349" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="H349" s="28">
+        <v>367</v>
+      </c>
     </row>
     <row r="350" spans="1:8">
-      <c r="A350" s="39">
-        <v>2367</v>
-      </c>
-      <c r="B350" s="28">
-        <v>3266</v>
-      </c>
-      <c r="C350" s="28">
-        <v>5703</v>
-      </c>
-      <c r="D350" s="28">
-        <v>3923</v>
-      </c>
-      <c r="E350" s="28"/>
-      <c r="F350" s="28"/>
-      <c r="G350" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="H350" s="28">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8">
-      <c r="A351" s="39">
-        <v>2368</v>
-      </c>
-      <c r="B351" s="28">
-        <v>3619</v>
-      </c>
-      <c r="C351" s="28"/>
-      <c r="D351" s="28"/>
-      <c r="E351" s="28"/>
-      <c r="F351" s="28"/>
-      <c r="G351" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="H351" s="28">
-        <v>59</v>
-      </c>
+      <c r="B350" s="21"/>
+      <c r="G350" s="21"/>
+      <c r="H350" s="22"/>
+    </row>
+    <row r="351" spans="1:8" ht="18">
+      <c r="B351" s="21"/>
+      <c r="G351" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H351" s="22"/>
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="39">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="B352" s="28">
-        <v>3893</v>
-      </c>
-      <c r="C352" s="28"/>
+        <v>2798</v>
+      </c>
+      <c r="C352" s="28">
+        <v>5254</v>
+      </c>
       <c r="D352" s="28"/>
       <c r="E352" s="28"/>
       <c r="F352" s="28"/>
       <c r="G352" s="29" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="H352" s="28">
-        <v>367</v>
+        <v>185</v>
       </c>
     </row>
     <row r="353" spans="1:8">
-      <c r="B353" s="21"/>
-      <c r="G353" s="21"/>
-      <c r="H353" s="22"/>
-    </row>
-    <row r="354" spans="1:8" ht="18">
-      <c r="B354" s="21"/>
-      <c r="G354" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H354" s="22"/>
+      <c r="A353" s="39">
+        <v>2372</v>
+      </c>
+      <c r="B353" s="28">
+        <v>3632</v>
+      </c>
+      <c r="C353" s="28">
+        <v>5840</v>
+      </c>
+      <c r="D353" s="28"/>
+      <c r="E353" s="28"/>
+      <c r="F353" s="28"/>
+      <c r="G353" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="H353" s="28">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354" s="39">
+        <v>2373</v>
+      </c>
+      <c r="B354" s="28">
+        <v>3633</v>
+      </c>
+      <c r="C354" s="28">
+        <v>5839</v>
+      </c>
+      <c r="D354" s="28">
+        <v>4149</v>
+      </c>
+      <c r="E354" s="28"/>
+      <c r="F354" s="28"/>
+      <c r="G354" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="H354" s="28">
+        <v>901</v>
+      </c>
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="39">
-        <v>2370</v>
+        <v>2374</v>
       </c>
       <c r="B355" s="28">
-        <v>7972</v>
+        <v>6228</v>
       </c>
       <c r="C355" s="28"/>
       <c r="D355" s="28"/>
       <c r="E355" s="28"/>
       <c r="F355" s="28"/>
       <c r="G355" s="29" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="H355" s="28">
-        <v>192</v>
+        <v>259</v>
       </c>
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="39">
-        <v>2371</v>
+        <v>2375</v>
       </c>
       <c r="B356" s="28">
-        <v>2798</v>
+        <v>3892</v>
       </c>
       <c r="C356" s="28">
-        <v>5254</v>
+        <v>6230</v>
       </c>
       <c r="D356" s="28"/>
       <c r="E356" s="28"/>
       <c r="F356" s="28"/>
       <c r="G356" s="29" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="H356" s="28">
-        <v>185</v>
+        <v>626</v>
       </c>
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="39">
-        <v>2372</v>
+        <v>2376</v>
       </c>
       <c r="B357" s="28">
-        <v>3632</v>
-      </c>
-      <c r="C357" s="28">
-        <v>5840</v>
-      </c>
+        <v>6231</v>
+      </c>
+      <c r="C357" s="28"/>
       <c r="D357" s="28"/>
       <c r="E357" s="28"/>
       <c r="F357" s="28"/>
       <c r="G357" s="29" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="H357" s="28">
-        <v>526</v>
+        <v>259</v>
       </c>
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="39">
-        <v>2373</v>
+        <v>2377</v>
       </c>
       <c r="B358" s="28">
-        <v>3633</v>
+        <v>2799</v>
       </c>
       <c r="C358" s="28">
-        <v>5839</v>
-      </c>
-      <c r="D358" s="28">
-        <v>4149</v>
-      </c>
+        <v>5255</v>
+      </c>
+      <c r="D358" s="28"/>
       <c r="E358" s="28"/>
       <c r="F358" s="28"/>
       <c r="G358" s="29" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="H358" s="28">
-        <v>901</v>
+        <v>185</v>
       </c>
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="39">
-        <v>2374</v>
+        <v>2378</v>
       </c>
       <c r="B359" s="28">
-        <v>6228</v>
+        <v>2800</v>
       </c>
       <c r="C359" s="28"/>
       <c r="D359" s="28"/>
       <c r="E359" s="28"/>
       <c r="F359" s="28"/>
       <c r="G359" s="29" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="H359" s="28">
-        <v>259</v>
+        <v>152</v>
       </c>
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="39">
-        <v>2375</v>
+        <v>2379</v>
       </c>
       <c r="B360" s="28">
-        <v>3892</v>
+        <v>2801</v>
       </c>
       <c r="C360" s="28">
-        <v>6230</v>
-      </c>
-      <c r="D360" s="28"/>
+        <v>6232</v>
+      </c>
+      <c r="D360" s="28">
+        <v>5842</v>
+      </c>
       <c r="E360" s="28"/>
       <c r="F360" s="28"/>
       <c r="G360" s="29" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="H360" s="28">
-        <v>626</v>
+        <v>878</v>
       </c>
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="39">
-        <v>2376</v>
+        <v>2380</v>
       </c>
       <c r="B361" s="28">
-        <v>6231</v>
+        <v>4149</v>
       </c>
       <c r="C361" s="28"/>
       <c r="D361" s="28"/>
       <c r="E361" s="28"/>
       <c r="F361" s="28"/>
       <c r="G361" s="29" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="H361" s="28">
-        <v>259</v>
+        <v>375</v>
       </c>
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="39">
-        <v>2377</v>
+        <v>2381</v>
       </c>
       <c r="B362" s="28">
-        <v>2799</v>
-      </c>
-      <c r="C362" s="28">
-        <v>5255</v>
-      </c>
+        <v>5843</v>
+      </c>
+      <c r="C362" s="28"/>
       <c r="D362" s="28"/>
       <c r="E362" s="28"/>
       <c r="F362" s="28"/>
       <c r="G362" s="29" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="H362" s="28">
-        <v>185</v>
+        <v>467</v>
       </c>
     </row>
     <row r="363" spans="1:8">
-      <c r="A363" s="39">
-        <v>2378</v>
-      </c>
-      <c r="B363" s="28">
-        <v>2800</v>
-      </c>
-      <c r="C363" s="28"/>
-      <c r="D363" s="28"/>
-      <c r="E363" s="28"/>
-      <c r="F363" s="28"/>
-      <c r="G363" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="H363" s="28">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8">
-      <c r="A364" s="39">
-        <v>2379</v>
-      </c>
-      <c r="B364" s="28">
-        <v>2801</v>
-      </c>
-      <c r="C364" s="28">
-        <v>6232</v>
-      </c>
-      <c r="D364" s="28">
-        <v>5842</v>
-      </c>
-      <c r="E364" s="28"/>
-      <c r="F364" s="28"/>
-      <c r="G364" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="H364" s="28">
-        <v>878</v>
-      </c>
+      <c r="B363" s="22"/>
+      <c r="G363" s="21"/>
+      <c r="H363" s="22"/>
+    </row>
+    <row r="364" spans="1:8" ht="18">
+      <c r="B364" s="22"/>
+      <c r="G364" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H364" s="22"/>
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="39">
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="B365" s="28">
-        <v>4149</v>
-      </c>
-      <c r="C365" s="28"/>
+        <v>3263</v>
+      </c>
+      <c r="C365" s="28">
+        <v>5832</v>
+      </c>
       <c r="D365" s="28"/>
       <c r="E365" s="28"/>
       <c r="F365" s="28"/>
       <c r="G365" s="29" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="H365" s="28">
-        <v>375</v>
+        <v>647</v>
       </c>
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="39">
-        <v>2381</v>
+        <v>2384</v>
       </c>
       <c r="B366" s="28">
-        <v>5843</v>
+        <v>5212</v>
       </c>
       <c r="C366" s="28"/>
       <c r="D366" s="28"/>
       <c r="E366" s="28"/>
       <c r="F366" s="28"/>
       <c r="G366" s="29" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H366" s="28">
-        <v>467</v>
+        <v>28</v>
       </c>
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="39">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="B367" s="28">
-        <v>6233</v>
-      </c>
-      <c r="C367" s="28"/>
-      <c r="D367" s="28"/>
+        <v>5825</v>
+      </c>
+      <c r="C367" s="28">
+        <v>2228</v>
+      </c>
+      <c r="D367" s="28">
+        <v>3920</v>
+      </c>
       <c r="E367" s="28"/>
       <c r="F367" s="28"/>
       <c r="G367" s="29" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="H367" s="28">
-        <v>259</v>
+        <v>968</v>
       </c>
     </row>
     <row r="368" spans="1:8">
-      <c r="B368" s="22"/>
-      <c r="G368" s="21"/>
-      <c r="H368" s="22"/>
-    </row>
-    <row r="369" spans="1:8" ht="18">
-      <c r="B369" s="22"/>
-      <c r="G369" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H369" s="22"/>
+      <c r="A368" s="39">
+        <v>2386</v>
+      </c>
+      <c r="B368" s="28">
+        <v>4156</v>
+      </c>
+      <c r="C368" s="28"/>
+      <c r="D368" s="28"/>
+      <c r="E368" s="28"/>
+      <c r="F368" s="28"/>
+      <c r="G368" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="H368" s="28">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="A369" s="39">
+        <v>2387</v>
+      </c>
+      <c r="B369" s="28">
+        <v>3262</v>
+      </c>
+      <c r="C369" s="28"/>
+      <c r="D369" s="28"/>
+      <c r="E369" s="28"/>
+      <c r="F369" s="28"/>
+      <c r="G369" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="H369" s="28">
+        <v>180</v>
+      </c>
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="39">
-        <v>2383</v>
+        <v>2388</v>
       </c>
       <c r="B370" s="28">
-        <v>3263</v>
-      </c>
-      <c r="C370" s="28">
-        <v>5832</v>
-      </c>
+        <v>6382</v>
+      </c>
+      <c r="C370" s="28"/>
       <c r="D370" s="28"/>
       <c r="E370" s="28"/>
       <c r="F370" s="28"/>
       <c r="G370" s="29" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="H370" s="28">
-        <v>647</v>
+        <v>289</v>
       </c>
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="39">
-        <v>2384</v>
+        <v>2389</v>
       </c>
       <c r="B371" s="28">
-        <v>5212</v>
+        <v>6383</v>
       </c>
       <c r="C371" s="28"/>
       <c r="D371" s="28"/>
       <c r="E371" s="28"/>
       <c r="F371" s="28"/>
       <c r="G371" s="29" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="H371" s="28">
-        <v>28</v>
+        <v>289</v>
       </c>
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="39">
-        <v>2385</v>
+        <v>2390</v>
       </c>
       <c r="B372" s="28">
-        <v>5825</v>
-      </c>
-      <c r="C372" s="28">
-        <v>2228</v>
-      </c>
-      <c r="D372" s="28">
-        <v>3920</v>
-      </c>
+        <v>6388</v>
+      </c>
+      <c r="C372" s="28"/>
+      <c r="D372" s="28"/>
       <c r="E372" s="28"/>
       <c r="F372" s="28"/>
       <c r="G372" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="H372" s="28">
         <v>289</v>
-      </c>
-      <c r="H372" s="28">
-        <v>968</v>
       </c>
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="39">
-        <v>2386</v>
+        <v>2391</v>
       </c>
       <c r="B373" s="28">
-        <v>4156</v>
+        <v>6389</v>
       </c>
       <c r="C373" s="28"/>
       <c r="D373" s="28"/>
       <c r="E373" s="28"/>
       <c r="F373" s="28"/>
       <c r="G373" s="29" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="H373" s="28">
-        <v>375</v>
+        <v>289</v>
       </c>
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="39">
-        <v>2387</v>
+        <v>2392</v>
       </c>
       <c r="B374" s="28">
-        <v>3262</v>
+        <v>6390</v>
       </c>
       <c r="C374" s="28"/>
       <c r="D374" s="28"/>
       <c r="E374" s="28"/>
       <c r="F374" s="28"/>
       <c r="G374" s="29" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="H374" s="28">
-        <v>180</v>
+        <v>289</v>
       </c>
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="39">
-        <v>2388</v>
+        <v>2393</v>
       </c>
       <c r="B375" s="28">
-        <v>6382</v>
+        <v>6391</v>
       </c>
       <c r="C375" s="28"/>
       <c r="D375" s="28"/>
       <c r="E375" s="28"/>
       <c r="F375" s="28"/>
       <c r="G375" s="29" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H375" s="28">
         <v>289</v>
@@ -7426,17 +7427,17 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="39">
-        <v>2389</v>
+        <v>2394</v>
       </c>
       <c r="B376" s="28">
-        <v>6383</v>
+        <v>6392</v>
       </c>
       <c r="C376" s="28"/>
       <c r="D376" s="28"/>
       <c r="E376" s="28"/>
       <c r="F376" s="28"/>
       <c r="G376" s="29" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="H376" s="28">
         <v>289</v>
@@ -7444,17 +7445,17 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="39">
-        <v>2390</v>
+        <v>2395</v>
       </c>
       <c r="B377" s="28">
-        <v>6388</v>
+        <v>6393</v>
       </c>
       <c r="C377" s="28"/>
       <c r="D377" s="28"/>
       <c r="E377" s="28"/>
       <c r="F377" s="28"/>
       <c r="G377" s="29" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H377" s="28">
         <v>289</v>
@@ -7462,17 +7463,17 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="39">
-        <v>2391</v>
+        <v>2396</v>
       </c>
       <c r="B378" s="28">
-        <v>6389</v>
+        <v>6403</v>
       </c>
       <c r="C378" s="28"/>
       <c r="D378" s="28"/>
       <c r="E378" s="28"/>
       <c r="F378" s="28"/>
       <c r="G378" s="29" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H378" s="28">
         <v>289</v>
@@ -7480,287 +7481,49 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="39">
-        <v>2392</v>
+        <v>2397</v>
       </c>
       <c r="B379" s="28">
-        <v>6390</v>
+        <v>6394</v>
       </c>
       <c r="C379" s="28"/>
       <c r="D379" s="28"/>
       <c r="E379" s="28"/>
       <c r="F379" s="28"/>
       <c r="G379" s="29" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H379" s="28">
         <v>289</v>
       </c>
     </row>
     <row r="380" spans="1:8">
-      <c r="A380" s="39">
-        <v>2393</v>
-      </c>
-      <c r="B380" s="28">
-        <v>6391</v>
-      </c>
-      <c r="C380" s="28"/>
-      <c r="D380" s="28"/>
-      <c r="E380" s="28"/>
-      <c r="F380" s="28"/>
-      <c r="G380" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="H380" s="28">
-        <v>289</v>
-      </c>
+      <c r="B380" s="22"/>
+      <c r="G380" s="21"/>
+      <c r="H380" s="22"/>
     </row>
     <row r="381" spans="1:8">
-      <c r="A381" s="39">
-        <v>2394</v>
-      </c>
-      <c r="B381" s="28">
-        <v>6392</v>
-      </c>
-      <c r="C381" s="28"/>
-      <c r="D381" s="28"/>
-      <c r="E381" s="28"/>
-      <c r="F381" s="28"/>
-      <c r="G381" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="H381" s="28">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8">
-      <c r="A382" s="39">
-        <v>2395</v>
-      </c>
-      <c r="B382" s="28">
-        <v>6393</v>
-      </c>
-      <c r="C382" s="28"/>
-      <c r="D382" s="28"/>
-      <c r="E382" s="28"/>
-      <c r="F382" s="28"/>
-      <c r="G382" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="H382" s="28">
-        <v>289</v>
-      </c>
+      <c r="B381" s="22"/>
+      <c r="G381" s="21"/>
+      <c r="H381" s="22"/>
     </row>
     <row r="383" spans="1:8">
-      <c r="A383" s="39">
-        <v>2396</v>
-      </c>
-      <c r="B383" s="28">
-        <v>6403</v>
-      </c>
-      <c r="C383" s="28"/>
-      <c r="D383" s="28"/>
-      <c r="E383" s="28"/>
-      <c r="F383" s="28"/>
-      <c r="G383" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="H383" s="28">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8">
-      <c r="A384" s="39">
-        <v>2397</v>
-      </c>
-      <c r="B384" s="28">
-        <v>6394</v>
-      </c>
-      <c r="C384" s="28"/>
-      <c r="D384" s="28"/>
-      <c r="E384" s="28"/>
-      <c r="F384" s="28"/>
-      <c r="G384" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="H384" s="28">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="385" spans="1:24">
-      <c r="B385" s="22"/>
-      <c r="G385" s="21"/>
-      <c r="H385" s="22"/>
-    </row>
-    <row r="386" spans="1:24" ht="18">
-      <c r="B386" s="22"/>
-      <c r="G386" s="1" t="s">
-        <v>334</v>
-      </c>
+      <c r="B383" s="22"/>
+      <c r="G383" s="21"/>
+      <c r="H383" s="22"/>
+    </row>
+    <row r="384" spans="1:8" s="13" customFormat="1">
+      <c r="B384" s="20"/>
+      <c r="C384" s="20"/>
+      <c r="D384" s="20"/>
+      <c r="E384" s="20"/>
+      <c r="F384" s="20"/>
+      <c r="H384" s="20"/>
+    </row>
+    <row r="386" spans="2:8">
+      <c r="B386" s="21"/>
+      <c r="G386" s="21"/>
       <c r="H386" s="22"/>
-    </row>
-    <row r="387" spans="1:24">
-      <c r="A387" s="27">
-        <v>2398</v>
-      </c>
-      <c r="B387" s="28">
-        <v>6805</v>
-      </c>
-      <c r="C387" s="28"/>
-      <c r="D387" s="28"/>
-      <c r="E387" s="28"/>
-      <c r="F387" s="28"/>
-      <c r="G387" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="H387" s="28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="388" spans="1:24">
-      <c r="A388" s="27">
-        <v>2399</v>
-      </c>
-      <c r="B388" s="28">
-        <v>6807</v>
-      </c>
-      <c r="C388" s="28"/>
-      <c r="D388" s="28"/>
-      <c r="E388" s="28"/>
-      <c r="F388" s="28"/>
-      <c r="G388" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="H388" s="28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="389" spans="1:24">
-      <c r="A389" s="27">
-        <v>2400</v>
-      </c>
-      <c r="B389" s="28">
-        <v>6809</v>
-      </c>
-      <c r="C389" s="28"/>
-      <c r="D389" s="28"/>
-      <c r="E389" s="28"/>
-      <c r="F389" s="28"/>
-      <c r="G389" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="H389" s="28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="390" spans="1:24">
-      <c r="A390" s="27">
-        <v>2401</v>
-      </c>
-      <c r="B390" s="28">
-        <v>6812</v>
-      </c>
-      <c r="C390" s="28"/>
-      <c r="D390" s="28"/>
-      <c r="E390" s="28"/>
-      <c r="F390" s="28"/>
-      <c r="G390" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="H390" s="28">
-        <v>26</v>
-      </c>
-      <c r="X390" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="391" spans="1:24">
-      <c r="A391" s="27">
-        <v>2402</v>
-      </c>
-      <c r="B391" s="28">
-        <v>6813</v>
-      </c>
-      <c r="C391" s="28"/>
-      <c r="D391" s="28"/>
-      <c r="E391" s="28"/>
-      <c r="F391" s="28"/>
-      <c r="G391" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="H391" s="28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="392" spans="1:24">
-      <c r="B392" s="22"/>
-      <c r="G392" s="21"/>
-      <c r="H392" s="22"/>
-    </row>
-    <row r="393" spans="1:24" ht="18">
-      <c r="B393" s="22"/>
-      <c r="G393" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H393" s="22"/>
-    </row>
-    <row r="394" spans="1:24">
-      <c r="A394" s="39">
-        <v>2403</v>
-      </c>
-      <c r="B394" s="28">
-        <v>8624</v>
-      </c>
-      <c r="C394" s="28"/>
-      <c r="D394" s="28"/>
-      <c r="E394" s="28"/>
-      <c r="F394" s="28"/>
-      <c r="G394" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="H394" s="28">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="395" spans="1:24">
-      <c r="A395" s="39">
-        <v>2404</v>
-      </c>
-      <c r="B395" s="28">
-        <v>8625</v>
-      </c>
-      <c r="C395" s="28"/>
-      <c r="D395" s="28"/>
-      <c r="E395" s="28"/>
-      <c r="F395" s="28"/>
-      <c r="G395" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="H395" s="28">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="396" spans="1:24">
-      <c r="B396" s="22"/>
-      <c r="G396" s="21"/>
-      <c r="H396" s="22"/>
-    </row>
-    <row r="398" spans="1:24">
-      <c r="B398" s="22"/>
-      <c r="G398" s="21"/>
-      <c r="H398" s="22"/>
-    </row>
-    <row r="399" spans="1:24" s="13" customFormat="1">
-      <c r="B399" s="20"/>
-      <c r="C399" s="20"/>
-      <c r="D399" s="20"/>
-      <c r="E399" s="20"/>
-      <c r="F399" s="20"/>
-      <c r="H399" s="20"/>
-    </row>
-    <row r="401" spans="2:8">
-      <c r="B401" s="21"/>
-      <c r="G401" s="21"/>
-      <c r="H401" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
